--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.61406900223119</v>
+        <v>3.614069002231304</v>
       </c>
       <c r="C2">
         <v>1.102206451661687</v>
       </c>
       <c r="D2">
-        <v>0.03812336356322277</v>
+        <v>0.03812336356321566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0.3015453824963714</v>
       </c>
       <c r="H2">
-        <v>0.1087475783757839</v>
+        <v>0.1087475783757732</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.138277211255456</v>
+        <v>3.13827721125557</v>
       </c>
       <c r="C3">
-        <v>0.9578295486253694</v>
+        <v>0.9578295486256252</v>
       </c>
       <c r="D3">
-        <v>0.03445151752111286</v>
+        <v>0.03445151752083575</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4412792139995858</v>
+        <v>0.4412792139995574</v>
       </c>
       <c r="G3">
-        <v>0.2793902495445195</v>
+        <v>0.2793902495445337</v>
       </c>
       <c r="H3">
-        <v>0.1181540114195343</v>
+        <v>0.1181540114195236</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847369923393387</v>
+        <v>2.847369923393558</v>
       </c>
       <c r="C4">
-        <v>0.8696472184195443</v>
+        <v>0.8696472184194022</v>
       </c>
       <c r="D4">
-        <v>0.03222855487786092</v>
+        <v>0.03222855487788223</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4162476036825495</v>
+        <v>0.4162476036825709</v>
       </c>
       <c r="G4">
-        <v>0.2677790573627661</v>
+        <v>0.2677790573627874</v>
       </c>
       <c r="H4">
-        <v>0.1254031069406203</v>
+        <v>0.1254031069406238</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.729057915212138</v>
+        <v>2.729057915212252</v>
       </c>
       <c r="C5">
         <v>0.8338025648243104</v>
       </c>
       <c r="D5">
-        <v>0.03132964421175188</v>
+        <v>0.0313296442116382</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4066200190232863</v>
+        <v>0.4066200190232721</v>
       </c>
       <c r="G5">
-        <v>0.2635081460203139</v>
+        <v>0.2635081460203068</v>
       </c>
       <c r="H5">
         <v>0.1287026175045707</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.709424428558918</v>
+        <v>2.709424428559032</v>
       </c>
       <c r="C6">
         <v>0.8278553028669648</v>
       </c>
       <c r="D6">
-        <v>0.03118077476690928</v>
+        <v>0.03118077476717929</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.2628256687566548</v>
       </c>
       <c r="H6">
-        <v>0.1292706612769781</v>
+        <v>0.129270661276994</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.845773468643813</v>
+        <v>2.84577346864387</v>
       </c>
       <c r="C7">
         <v>0.8691634728444342</v>
       </c>
       <c r="D7">
-        <v>0.03221640487240762</v>
+        <v>0.03221640487241473</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4161155083896304</v>
+        <v>0.4161155083896233</v>
       </c>
       <c r="G7">
         <v>0.2677196439566742</v>
       </c>
       <c r="H7">
-        <v>0.1254462385182151</v>
+        <v>0.1254462385182045</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.44971377610409</v>
+        <v>3.449713776104204</v>
       </c>
       <c r="C8">
-        <v>1.052311851453823</v>
+        <v>1.052311851453908</v>
       </c>
       <c r="D8">
-        <v>0.03685014302121203</v>
+        <v>0.03685014302131862</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0.4700933059751122</v>
       </c>
       <c r="G8">
-        <v>0.2934677433793027</v>
+        <v>0.2934677433792956</v>
       </c>
       <c r="H8">
-        <v>0.1116694578503683</v>
+        <v>0.1116694578503719</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>4.647532577938534</v>
       </c>
       <c r="C9">
-        <v>1.416497033092526</v>
+        <v>1.416497033092469</v>
       </c>
       <c r="D9">
-        <v>0.04623694087158725</v>
+        <v>0.04623694087179331</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5981824672606422</v>
+        <v>0.598182467260628</v>
       </c>
       <c r="G9">
-        <v>0.3617341883532603</v>
+        <v>0.3617341883532745</v>
       </c>
       <c r="H9">
-        <v>0.09756843804226278</v>
+        <v>0.09756843804224857</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.541590004478564</v>
+        <v>5.541590004478735</v>
       </c>
       <c r="C10">
         <v>1.689208777131739</v>
       </c>
       <c r="D10">
-        <v>0.05339493824605768</v>
+        <v>0.05339493824594399</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.7097030983064911</v>
       </c>
       <c r="G10">
-        <v>0.4257279756622339</v>
+        <v>0.425727975662241</v>
       </c>
       <c r="H10">
         <v>0.09694295628980498</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.9528220878978</v>
+        <v>5.952822087897971</v>
       </c>
       <c r="C11">
-        <v>1.814914238682434</v>
+        <v>1.814914238682377</v>
       </c>
       <c r="D11">
-        <v>0.05672847315650387</v>
+        <v>0.05672847315656782</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0.7651817294014052</v>
       </c>
       <c r="G11">
-        <v>0.4585969969784927</v>
+        <v>0.458596996978514</v>
       </c>
       <c r="H11">
         <v>0.09923714297067576</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.10933044187442</v>
+        <v>6.109330441874704</v>
       </c>
       <c r="C12">
-        <v>1.862801587558067</v>
+        <v>1.862801587558238</v>
       </c>
       <c r="D12">
-        <v>0.05800386883608866</v>
+        <v>0.05800386883630892</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7869632474141923</v>
+        <v>0.7869632474142065</v>
       </c>
       <c r="G12">
-        <v>0.4716548020128997</v>
+        <v>0.4716548020129139</v>
       </c>
       <c r="H12">
-        <v>0.100520513401559</v>
+        <v>0.1005205134015554</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>6.075586426178063</v>
       </c>
       <c r="C13">
-        <v>1.852474663849364</v>
+        <v>1.852474663849307</v>
       </c>
       <c r="D13">
-        <v>0.05772857520372554</v>
+        <v>0.05772857520355501</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7822362850954079</v>
+        <v>0.7822362850954221</v>
       </c>
       <c r="G13">
-        <v>0.4688141854988714</v>
+        <v>0.4688141854988856</v>
       </c>
       <c r="H13">
-        <v>0.1002249275884175</v>
+        <v>0.1002249275884282</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.96568160000254</v>
+        <v>5.965681600002597</v>
       </c>
       <c r="C14">
-        <v>1.818847941785407</v>
+        <v>1.818847941785236</v>
       </c>
       <c r="D14">
-        <v>0.05683312701474819</v>
+        <v>0.05683312701471266</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0.459658592077723</v>
       </c>
       <c r="H14">
-        <v>0.09933414919126449</v>
+        <v>0.09933414919126804</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.89846799687308</v>
+        <v>5.898467996873364</v>
       </c>
       <c r="C15">
-        <v>1.798289307739765</v>
+        <v>1.798289307739594</v>
       </c>
       <c r="D15">
-        <v>0.05628640154705522</v>
+        <v>0.05628640154706233</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0.7577025791776322</v>
       </c>
       <c r="G15">
-        <v>0.4541323295246258</v>
+        <v>0.4541323295246116</v>
       </c>
       <c r="H15">
         <v>0.09884389786395076</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.514817082098887</v>
+        <v>5.514817082098944</v>
       </c>
       <c r="C16">
-        <v>1.681030804720422</v>
+        <v>1.681030804720081</v>
       </c>
       <c r="D16">
-        <v>0.05317880005742381</v>
+        <v>0.05317880005751618</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.706180466298207</v>
+        <v>0.7061804662981785</v>
       </c>
       <c r="G16">
-        <v>0.4236613903881192</v>
+        <v>0.423661390388105</v>
       </c>
       <c r="H16">
-        <v>0.09684855317201269</v>
+        <v>0.09684855317200203</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280708124357545</v>
+        <v>5.280708124357318</v>
       </c>
       <c r="C17">
-        <v>1.609551306459025</v>
+        <v>1.609551306458684</v>
       </c>
       <c r="D17">
-        <v>0.05129349565756769</v>
+        <v>0.05129349565752506</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0.4059788294412812</v>
       </c>
       <c r="H17">
-        <v>0.09631465114077997</v>
+        <v>0.09631465114076931</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.146471551995035</v>
+        <v>5.146471551995091</v>
       </c>
       <c r="C18">
-        <v>1.568590051890283</v>
+        <v>1.568590051890624</v>
       </c>
       <c r="D18">
-        <v>0.05021626682523816</v>
+        <v>0.0502162668252808</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0.658846343768289</v>
       </c>
       <c r="G18">
-        <v>0.396157343445978</v>
+        <v>0.3961573434459922</v>
       </c>
       <c r="H18">
         <v>0.09624740143359034</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.101089088502704</v>
+        <v>5.101089088502818</v>
       </c>
       <c r="C19">
-        <v>1.554745967039253</v>
+        <v>1.554745967039139</v>
       </c>
       <c r="D19">
-        <v>0.04985270827259569</v>
+        <v>0.04985270827254595</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6531621685204669</v>
+        <v>0.6531621685204527</v>
       </c>
       <c r="G19">
-        <v>0.3928898790129622</v>
+        <v>0.3928898790129907</v>
       </c>
       <c r="H19">
         <v>0.09626456520345528</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.305585373302904</v>
+        <v>5.305585373302677</v>
       </c>
       <c r="C20">
-        <v>1.617144369842322</v>
+        <v>1.617144369842379</v>
       </c>
       <c r="D20">
-        <v>0.05149343643395099</v>
+        <v>0.05149343643390125</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6790328926665268</v>
+        <v>0.6790328926665126</v>
       </c>
       <c r="G20">
-        <v>0.4078245551082702</v>
+        <v>0.4078245551082915</v>
       </c>
       <c r="H20">
         <v>0.09634636145292674</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997940904086533</v>
+        <v>5.99794090408642</v>
       </c>
       <c r="C21">
-        <v>1.828716764737464</v>
+        <v>1.828716764737237</v>
       </c>
       <c r="D21">
-        <v>0.05709577075005967</v>
+        <v>0.05709577075010941</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7714236181363816</v>
+        <v>0.7714236181363674</v>
       </c>
       <c r="G21">
-        <v>0.4623306268658141</v>
+        <v>0.4623306268658354</v>
       </c>
       <c r="H21">
         <v>0.09958416701919859</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.455076236744674</v>
+        <v>6.455076236744787</v>
       </c>
       <c r="C22">
-        <v>1.968681856467072</v>
+        <v>1.968681856466674</v>
       </c>
       <c r="D22">
-        <v>0.06083442187588162</v>
+        <v>0.06083442187586741</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.836361066415094</v>
+        <v>0.8363610664151082</v>
       </c>
       <c r="G22">
-        <v>0.5015536442533985</v>
+        <v>0.5015536442533843</v>
       </c>
       <c r="H22">
-        <v>0.1041408514471165</v>
+        <v>0.10414085144712</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.210621752607608</v>
+        <v>6.210621752607324</v>
       </c>
       <c r="C23">
-        <v>1.893807672609171</v>
+        <v>1.89380767260883</v>
       </c>
       <c r="D23">
-        <v>0.05883126136938444</v>
+        <v>0.05883126136945549</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8012534628502834</v>
+        <v>0.8012534628502976</v>
       </c>
       <c r="G23">
-        <v>0.4802647212894016</v>
+        <v>0.4802647212893874</v>
       </c>
       <c r="H23">
         <v>0.1014697896865577</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.294337270772303</v>
+        <v>5.294337270771905</v>
       </c>
       <c r="C24">
-        <v>1.613711134403729</v>
+        <v>1.613711134403843</v>
       </c>
       <c r="D24">
-        <v>0.05140302261478524</v>
+        <v>0.05140302261477814</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0.6775927756608695</v>
       </c>
       <c r="G24">
-        <v>0.4069890348784782</v>
+        <v>0.4069890348784568</v>
       </c>
       <c r="H24">
-        <v>0.09633128186678874</v>
+        <v>0.0963312818667923</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.321482491849395</v>
+        <v>4.321482491849451</v>
       </c>
       <c r="C25">
-        <v>1.317234757519429</v>
+        <v>1.317234757518804</v>
       </c>
       <c r="D25">
-        <v>0.04365789308128853</v>
+        <v>0.04365789308118195</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5607740179225331</v>
+        <v>0.5607740179225189</v>
       </c>
       <c r="G25">
         <v>0.341070758251341</v>
       </c>
       <c r="H25">
-        <v>0.09981896165399107</v>
+        <v>0.09981896165397686</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.614069002231304</v>
+        <v>3.61406900223119</v>
       </c>
       <c r="C2">
         <v>1.102206451661687</v>
       </c>
       <c r="D2">
-        <v>0.03812336356321566</v>
+        <v>0.03812336356322277</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0.3015453824963714</v>
       </c>
       <c r="H2">
-        <v>0.1087475783757732</v>
+        <v>0.1087475783757839</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.13827721125557</v>
+        <v>3.138277211255456</v>
       </c>
       <c r="C3">
-        <v>0.9578295486256252</v>
+        <v>0.9578295486253694</v>
       </c>
       <c r="D3">
-        <v>0.03445151752083575</v>
+        <v>0.03445151752111286</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4412792139995574</v>
+        <v>0.4412792139995858</v>
       </c>
       <c r="G3">
-        <v>0.2793902495445337</v>
+        <v>0.2793902495445195</v>
       </c>
       <c r="H3">
-        <v>0.1181540114195236</v>
+        <v>0.1181540114195343</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847369923393558</v>
+        <v>2.847369923393387</v>
       </c>
       <c r="C4">
-        <v>0.8696472184194022</v>
+        <v>0.8696472184195443</v>
       </c>
       <c r="D4">
-        <v>0.03222855487788223</v>
+        <v>0.03222855487786092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4162476036825709</v>
+        <v>0.4162476036825495</v>
       </c>
       <c r="G4">
-        <v>0.2677790573627874</v>
+        <v>0.2677790573627661</v>
       </c>
       <c r="H4">
-        <v>0.1254031069406238</v>
+        <v>0.1254031069406203</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.729057915212252</v>
+        <v>2.729057915212138</v>
       </c>
       <c r="C5">
         <v>0.8338025648243104</v>
       </c>
       <c r="D5">
-        <v>0.0313296442116382</v>
+        <v>0.03132964421175188</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4066200190232721</v>
+        <v>0.4066200190232863</v>
       </c>
       <c r="G5">
-        <v>0.2635081460203068</v>
+        <v>0.2635081460203139</v>
       </c>
       <c r="H5">
         <v>0.1287026175045707</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.709424428559032</v>
+        <v>2.709424428558918</v>
       </c>
       <c r="C6">
         <v>0.8278553028669648</v>
       </c>
       <c r="D6">
-        <v>0.03118077476717929</v>
+        <v>0.03118077476690928</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.2628256687566548</v>
       </c>
       <c r="H6">
-        <v>0.129270661276994</v>
+        <v>0.1292706612769781</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.84577346864387</v>
+        <v>2.845773468643813</v>
       </c>
       <c r="C7">
         <v>0.8691634728444342</v>
       </c>
       <c r="D7">
-        <v>0.03221640487241473</v>
+        <v>0.03221640487240762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4161155083896233</v>
+        <v>0.4161155083896304</v>
       </c>
       <c r="G7">
         <v>0.2677196439566742</v>
       </c>
       <c r="H7">
-        <v>0.1254462385182045</v>
+        <v>0.1254462385182151</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.449713776104204</v>
+        <v>3.44971377610409</v>
       </c>
       <c r="C8">
-        <v>1.052311851453908</v>
+        <v>1.052311851453823</v>
       </c>
       <c r="D8">
-        <v>0.03685014302131862</v>
+        <v>0.03685014302121203</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0.4700933059751122</v>
       </c>
       <c r="G8">
-        <v>0.2934677433792956</v>
+        <v>0.2934677433793027</v>
       </c>
       <c r="H8">
-        <v>0.1116694578503719</v>
+        <v>0.1116694578503683</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>4.647532577938534</v>
       </c>
       <c r="C9">
-        <v>1.416497033092469</v>
+        <v>1.416497033092526</v>
       </c>
       <c r="D9">
-        <v>0.04623694087179331</v>
+        <v>0.04623694087158725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.598182467260628</v>
+        <v>0.5981824672606422</v>
       </c>
       <c r="G9">
-        <v>0.3617341883532745</v>
+        <v>0.3617341883532603</v>
       </c>
       <c r="H9">
-        <v>0.09756843804224857</v>
+        <v>0.09756843804226278</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.541590004478735</v>
+        <v>5.541590004478564</v>
       </c>
       <c r="C10">
         <v>1.689208777131739</v>
       </c>
       <c r="D10">
-        <v>0.05339493824594399</v>
+        <v>0.05339493824605768</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.7097030983064911</v>
       </c>
       <c r="G10">
-        <v>0.425727975662241</v>
+        <v>0.4257279756622339</v>
       </c>
       <c r="H10">
         <v>0.09694295628980498</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.952822087897971</v>
+        <v>5.9528220878978</v>
       </c>
       <c r="C11">
-        <v>1.814914238682377</v>
+        <v>1.814914238682434</v>
       </c>
       <c r="D11">
-        <v>0.05672847315656782</v>
+        <v>0.05672847315650387</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0.7651817294014052</v>
       </c>
       <c r="G11">
-        <v>0.458596996978514</v>
+        <v>0.4585969969784927</v>
       </c>
       <c r="H11">
         <v>0.09923714297067576</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.109330441874704</v>
+        <v>6.10933044187442</v>
       </c>
       <c r="C12">
-        <v>1.862801587558238</v>
+        <v>1.862801587558067</v>
       </c>
       <c r="D12">
-        <v>0.05800386883630892</v>
+        <v>0.05800386883608866</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7869632474142065</v>
+        <v>0.7869632474141923</v>
       </c>
       <c r="G12">
-        <v>0.4716548020129139</v>
+        <v>0.4716548020128997</v>
       </c>
       <c r="H12">
-        <v>0.1005205134015554</v>
+        <v>0.100520513401559</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>6.075586426178063</v>
       </c>
       <c r="C13">
-        <v>1.852474663849307</v>
+        <v>1.852474663849364</v>
       </c>
       <c r="D13">
-        <v>0.05772857520355501</v>
+        <v>0.05772857520372554</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7822362850954221</v>
+        <v>0.7822362850954079</v>
       </c>
       <c r="G13">
-        <v>0.4688141854988856</v>
+        <v>0.4688141854988714</v>
       </c>
       <c r="H13">
-        <v>0.1002249275884282</v>
+        <v>0.1002249275884175</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.965681600002597</v>
+        <v>5.96568160000254</v>
       </c>
       <c r="C14">
-        <v>1.818847941785236</v>
+        <v>1.818847941785407</v>
       </c>
       <c r="D14">
-        <v>0.05683312701471266</v>
+        <v>0.05683312701474819</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0.459658592077723</v>
       </c>
       <c r="H14">
-        <v>0.09933414919126804</v>
+        <v>0.09933414919126449</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898467996873364</v>
+        <v>5.89846799687308</v>
       </c>
       <c r="C15">
-        <v>1.798289307739594</v>
+        <v>1.798289307739765</v>
       </c>
       <c r="D15">
-        <v>0.05628640154706233</v>
+        <v>0.05628640154705522</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0.7577025791776322</v>
       </c>
       <c r="G15">
-        <v>0.4541323295246116</v>
+        <v>0.4541323295246258</v>
       </c>
       <c r="H15">
         <v>0.09884389786395076</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.514817082098944</v>
+        <v>5.514817082098887</v>
       </c>
       <c r="C16">
-        <v>1.681030804720081</v>
+        <v>1.681030804720422</v>
       </c>
       <c r="D16">
-        <v>0.05317880005751618</v>
+        <v>0.05317880005742381</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7061804662981785</v>
+        <v>0.706180466298207</v>
       </c>
       <c r="G16">
-        <v>0.423661390388105</v>
+        <v>0.4236613903881192</v>
       </c>
       <c r="H16">
-        <v>0.09684855317200203</v>
+        <v>0.09684855317201269</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280708124357318</v>
+        <v>5.280708124357545</v>
       </c>
       <c r="C17">
-        <v>1.609551306458684</v>
+        <v>1.609551306459025</v>
       </c>
       <c r="D17">
-        <v>0.05129349565752506</v>
+        <v>0.05129349565756769</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0.4059788294412812</v>
       </c>
       <c r="H17">
-        <v>0.09631465114076931</v>
+        <v>0.09631465114077997</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.146471551995091</v>
+        <v>5.146471551995035</v>
       </c>
       <c r="C18">
-        <v>1.568590051890624</v>
+        <v>1.568590051890283</v>
       </c>
       <c r="D18">
-        <v>0.0502162668252808</v>
+        <v>0.05021626682523816</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0.658846343768289</v>
       </c>
       <c r="G18">
-        <v>0.3961573434459922</v>
+        <v>0.396157343445978</v>
       </c>
       <c r="H18">
         <v>0.09624740143359034</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.101089088502818</v>
+        <v>5.101089088502704</v>
       </c>
       <c r="C19">
-        <v>1.554745967039139</v>
+        <v>1.554745967039253</v>
       </c>
       <c r="D19">
-        <v>0.04985270827254595</v>
+        <v>0.04985270827259569</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6531621685204527</v>
+        <v>0.6531621685204669</v>
       </c>
       <c r="G19">
-        <v>0.3928898790129907</v>
+        <v>0.3928898790129622</v>
       </c>
       <c r="H19">
         <v>0.09626456520345528</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.305585373302677</v>
+        <v>5.305585373302904</v>
       </c>
       <c r="C20">
-        <v>1.617144369842379</v>
+        <v>1.617144369842322</v>
       </c>
       <c r="D20">
-        <v>0.05149343643390125</v>
+        <v>0.05149343643395099</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6790328926665126</v>
+        <v>0.6790328926665268</v>
       </c>
       <c r="G20">
-        <v>0.4078245551082915</v>
+        <v>0.4078245551082702</v>
       </c>
       <c r="H20">
         <v>0.09634636145292674</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.99794090408642</v>
+        <v>5.997940904086533</v>
       </c>
       <c r="C21">
-        <v>1.828716764737237</v>
+        <v>1.828716764737464</v>
       </c>
       <c r="D21">
-        <v>0.05709577075010941</v>
+        <v>0.05709577075005967</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7714236181363674</v>
+        <v>0.7714236181363816</v>
       </c>
       <c r="G21">
-        <v>0.4623306268658354</v>
+        <v>0.4623306268658141</v>
       </c>
       <c r="H21">
         <v>0.09958416701919859</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.455076236744787</v>
+        <v>6.455076236744674</v>
       </c>
       <c r="C22">
-        <v>1.968681856466674</v>
+        <v>1.968681856467072</v>
       </c>
       <c r="D22">
-        <v>0.06083442187586741</v>
+        <v>0.06083442187588162</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8363610664151082</v>
+        <v>0.836361066415094</v>
       </c>
       <c r="G22">
-        <v>0.5015536442533843</v>
+        <v>0.5015536442533985</v>
       </c>
       <c r="H22">
-        <v>0.10414085144712</v>
+        <v>0.1041408514471165</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.210621752607324</v>
+        <v>6.210621752607608</v>
       </c>
       <c r="C23">
-        <v>1.89380767260883</v>
+        <v>1.893807672609171</v>
       </c>
       <c r="D23">
-        <v>0.05883126136945549</v>
+        <v>0.05883126136938444</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8012534628502976</v>
+        <v>0.8012534628502834</v>
       </c>
       <c r="G23">
-        <v>0.4802647212893874</v>
+        <v>0.4802647212894016</v>
       </c>
       <c r="H23">
         <v>0.1014697896865577</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.294337270771905</v>
+        <v>5.294337270772303</v>
       </c>
       <c r="C24">
-        <v>1.613711134403843</v>
+        <v>1.613711134403729</v>
       </c>
       <c r="D24">
-        <v>0.05140302261477814</v>
+        <v>0.05140302261478524</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0.6775927756608695</v>
       </c>
       <c r="G24">
-        <v>0.4069890348784568</v>
+        <v>0.4069890348784782</v>
       </c>
       <c r="H24">
-        <v>0.0963312818667923</v>
+        <v>0.09633128186678874</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.321482491849451</v>
+        <v>4.321482491849395</v>
       </c>
       <c r="C25">
-        <v>1.317234757518804</v>
+        <v>1.317234757519429</v>
       </c>
       <c r="D25">
-        <v>0.04365789308118195</v>
+        <v>0.04365789308128853</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5607740179225189</v>
+        <v>0.5607740179225331</v>
       </c>
       <c r="G25">
         <v>0.341070758251341</v>
       </c>
       <c r="H25">
-        <v>0.09981896165397686</v>
+        <v>0.09981896165399107</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.61406900223119</v>
+        <v>3.614022924991559</v>
       </c>
       <c r="C2">
-        <v>1.102206451661687</v>
+        <v>1.101965819142322</v>
       </c>
       <c r="D2">
-        <v>0.03812336356322277</v>
+        <v>0.03818531278609072</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4860928573170682</v>
+        <v>0.48549332947983</v>
       </c>
       <c r="G2">
-        <v>0.3015453824963714</v>
+        <v>0.09233549400406815</v>
       </c>
       <c r="H2">
-        <v>0.1087475783757839</v>
+        <v>0.2131445071562794</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1085486070602819</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.138277211255456</v>
+        <v>3.138259321190333</v>
       </c>
       <c r="C3">
-        <v>0.9578295486253694</v>
+        <v>0.9576303931679888</v>
       </c>
       <c r="D3">
-        <v>0.03445151752111286</v>
+        <v>0.03450486097188588</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4412792139995858</v>
+        <v>0.4407400592280482</v>
       </c>
       <c r="G3">
-        <v>0.2793902495445195</v>
+        <v>0.08244834865543993</v>
       </c>
       <c r="H3">
-        <v>0.1181540114195343</v>
+        <v>0.200966664429572</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1179669075762959</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847369923393387</v>
+        <v>2.847366866804634</v>
       </c>
       <c r="C4">
-        <v>0.8696472184195443</v>
+        <v>0.8694725528236802</v>
       </c>
       <c r="D4">
-        <v>0.03222855487786092</v>
+        <v>0.0322764608687649</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4162476036825495</v>
+        <v>0.4157432182054919</v>
       </c>
       <c r="G4">
-        <v>0.2677790573627661</v>
+        <v>0.07700241039929523</v>
       </c>
       <c r="H4">
-        <v>0.1254031069406203</v>
+        <v>0.1948536295652445</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1252220426690247</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.729057915212138</v>
+        <v>2.729060362876339</v>
       </c>
       <c r="C5">
-        <v>0.8338025648243104</v>
+        <v>0.8336376719454393</v>
       </c>
       <c r="D5">
-        <v>0.03132964421175188</v>
+        <v>0.03137529775479919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4066200190232863</v>
+        <v>0.4061292880147889</v>
       </c>
       <c r="G5">
-        <v>0.2635081460203139</v>
+        <v>0.07492650700429238</v>
       </c>
       <c r="H5">
-        <v>0.1287026175045707</v>
+        <v>0.1926792039188854</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1285237299862239</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.709424428558918</v>
+        <v>2.709427759799212</v>
       </c>
       <c r="C6">
-        <v>0.8278553028669648</v>
+        <v>0.8276920212953485</v>
       </c>
       <c r="D6">
-        <v>0.03118077476690928</v>
+        <v>0.03122605213435037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4050545293052608</v>
+        <v>0.4045660363087009</v>
       </c>
       <c r="G6">
-        <v>0.2628256687566548</v>
+        <v>0.07459007907521453</v>
       </c>
       <c r="H6">
-        <v>0.1292706612769781</v>
+        <v>0.1923365326236777</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1290921188298295</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.845773468643813</v>
+        <v>2.845770488373262</v>
       </c>
       <c r="C7">
-        <v>0.8691634728444342</v>
+        <v>0.8689889398370951</v>
       </c>
       <c r="D7">
-        <v>0.03221640487240762</v>
+        <v>0.0322642806315514</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4161155083896304</v>
+        <v>0.4156113090635642</v>
       </c>
       <c r="G7">
-        <v>0.2677196439566742</v>
+        <v>0.07697385107287147</v>
       </c>
       <c r="H7">
-        <v>0.1254462385182151</v>
+        <v>0.1948230557762543</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1252652047181524</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.44971377610409</v>
+        <v>3.449677982617516</v>
       </c>
       <c r="C8">
-        <v>1.052311851453823</v>
+        <v>1.052085747429146</v>
       </c>
       <c r="D8">
-        <v>0.03685014302121203</v>
+        <v>0.03690915805547235</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4700933059751122</v>
+        <v>0.4695151126416235</v>
       </c>
       <c r="G8">
-        <v>0.2934677433793027</v>
+        <v>0.08878814724862849</v>
       </c>
       <c r="H8">
-        <v>0.1116694578503683</v>
+        <v>0.2086460028470256</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1114748557276428</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.647532577938534</v>
+        <v>4.647408706111833</v>
       </c>
       <c r="C9">
-        <v>1.416497033092526</v>
+        <v>1.416160096929332</v>
       </c>
       <c r="D9">
-        <v>0.04623694087158725</v>
+        <v>0.04631648561692003</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5981824672606422</v>
+        <v>0.5974376777157602</v>
       </c>
       <c r="G9">
-        <v>0.3617341883532603</v>
+        <v>0.1175867759367222</v>
       </c>
       <c r="H9">
-        <v>0.09756843804226278</v>
+        <v>0.2478671135609787</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09733585492489283</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.541590004478564</v>
+        <v>5.54138046469501</v>
       </c>
       <c r="C10">
-        <v>1.689208777131739</v>
+        <v>1.688781419657175</v>
       </c>
       <c r="D10">
-        <v>0.05339493824605768</v>
+        <v>0.05348861474500666</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7097030983064911</v>
+        <v>0.7088176526632139</v>
       </c>
       <c r="G10">
-        <v>0.4257279756622339</v>
+        <v>0.1432052111062134</v>
       </c>
       <c r="H10">
-        <v>0.09694295628980498</v>
+        <v>0.286036340604781</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.09667318336732222</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.9528220878978</v>
+        <v>5.952567316884199</v>
       </c>
       <c r="C11">
-        <v>1.814914238682434</v>
+        <v>1.814442985113544</v>
       </c>
       <c r="D11">
-        <v>0.05672847315650387</v>
+        <v>0.05682833269955978</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7651817294014052</v>
+        <v>0.7642269694350006</v>
       </c>
       <c r="G11">
-        <v>0.4585969969784927</v>
+        <v>0.1560853039200936</v>
       </c>
       <c r="H11">
-        <v>0.09923714297067576</v>
+        <v>0.3059242885561133</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0989478120252052</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.10933044187442</v>
+        <v>6.109057474548081</v>
       </c>
       <c r="C12">
-        <v>1.862801587558067</v>
+        <v>1.862313235091847</v>
       </c>
       <c r="D12">
-        <v>0.05800386883608866</v>
+        <v>0.05810603052873375</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7869632474141923</v>
+        <v>0.7859813394269537</v>
       </c>
       <c r="G12">
-        <v>0.4716548020128997</v>
+        <v>0.1611631754549947</v>
       </c>
       <c r="H12">
-        <v>0.100520513401559</v>
+        <v>0.3138647711328915</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1002233350385282</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.075586426178063</v>
+        <v>6.075317428205892</v>
       </c>
       <c r="C13">
-        <v>1.852474663849364</v>
+        <v>1.851990016508296</v>
       </c>
       <c r="D13">
-        <v>0.05772857520372554</v>
+        <v>0.05783024290057881</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7822362850954079</v>
+        <v>0.781260266304173</v>
       </c>
       <c r="G13">
-        <v>0.4688141854988714</v>
+        <v>0.160060236166828</v>
       </c>
       <c r="H13">
-        <v>0.1002249275884175</v>
+        <v>0.3121356472960173</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.09992946001176506</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.96568160000254</v>
+        <v>5.965425354427111</v>
       </c>
       <c r="C14">
-        <v>1.818847941785407</v>
+        <v>1.818375291522045</v>
       </c>
       <c r="D14">
-        <v>0.05683312701474819</v>
+        <v>0.05693317676764309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7669576639146669</v>
+        <v>0.7660006893437838</v>
       </c>
       <c r="G14">
-        <v>0.459658592077723</v>
+        <v>0.156498898094533</v>
       </c>
       <c r="H14">
-        <v>0.09933414919126449</v>
+        <v>0.306569069199341</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.09904418186275876</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.89846799687308</v>
+        <v>5.898219417986525</v>
       </c>
       <c r="C15">
-        <v>1.798289307739765</v>
+        <v>1.797823941448314</v>
       </c>
       <c r="D15">
-        <v>0.05628640154705522</v>
+        <v>0.05638545502698378</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7577025791776322</v>
+        <v>0.7567571481966411</v>
       </c>
       <c r="G15">
-        <v>0.4541323295246258</v>
+        <v>0.1543443436135377</v>
       </c>
       <c r="H15">
-        <v>0.09884389786395076</v>
+        <v>0.303214150854167</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.09855724015038803</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.514817082098887</v>
+        <v>5.514610358495929</v>
       </c>
       <c r="C16">
-        <v>1.681030804720422</v>
+        <v>1.680606253855046</v>
       </c>
       <c r="D16">
-        <v>0.05317880005742381</v>
+        <v>0.05327206721578648</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.706180466298207</v>
+        <v>0.7052994322726533</v>
       </c>
       <c r="G16">
-        <v>0.4236613903881192</v>
+        <v>0.1423901439876474</v>
       </c>
       <c r="H16">
-        <v>0.09684855317201269</v>
+        <v>0.2847912622193078</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0965800002293129</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280708124357545</v>
+        <v>5.280525362100889</v>
       </c>
       <c r="C17">
-        <v>1.609551306459025</v>
+        <v>1.609151034065292</v>
       </c>
       <c r="D17">
-        <v>0.05129349565756769</v>
+        <v>0.0513831475810349</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6758504661829079</v>
+        <v>0.67500748344888</v>
       </c>
       <c r="G17">
-        <v>0.4059788294412812</v>
+        <v>0.135387038833727</v>
       </c>
       <c r="H17">
-        <v>0.09631465114077997</v>
+        <v>0.2741674163264207</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09605648767847086</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.146471551995035</v>
+        <v>5.146301993791951</v>
       </c>
       <c r="C18">
-        <v>1.568590051890283</v>
+        <v>1.568203489118503</v>
       </c>
       <c r="D18">
-        <v>0.05021626682523816</v>
+        <v>0.0503038165135905</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.658846343768289</v>
+        <v>0.6580247546105937</v>
       </c>
       <c r="G18">
-        <v>0.396157343445978</v>
+        <v>0.1314728558463258</v>
       </c>
       <c r="H18">
-        <v>0.09624740143359034</v>
+        <v>0.2682914314359763</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09599496940322538</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.101089088502704</v>
+        <v>5.100923906445246</v>
       </c>
       <c r="C19">
-        <v>1.554745967039253</v>
+        <v>1.55436400459223</v>
       </c>
       <c r="D19">
-        <v>0.04985270827259569</v>
+        <v>0.04993954236672238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6531621685204669</v>
+        <v>0.6523477420352037</v>
       </c>
       <c r="G19">
-        <v>0.3928898790129622</v>
+        <v>0.1301664356326242</v>
       </c>
       <c r="H19">
-        <v>0.09626456520345528</v>
+        <v>0.2663408813459966</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09601403350452031</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.305585373302904</v>
+        <v>5.305400121268406</v>
       </c>
       <c r="C20">
-        <v>1.617144369842322</v>
+        <v>1.616741539863142</v>
       </c>
       <c r="D20">
-        <v>0.05149343643395099</v>
+        <v>0.05158347559705589</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6790328926665268</v>
+        <v>0.6781859111891748</v>
       </c>
       <c r="G20">
-        <v>0.4078245551082702</v>
+        <v>0.1361205850706639</v>
       </c>
       <c r="H20">
-        <v>0.09634636145292674</v>
+        <v>0.2752737462343759</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.09608711771608469</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997940904086533</v>
+        <v>5.997680943276691</v>
       </c>
       <c r="C21">
-        <v>1.828716764737464</v>
+        <v>1.828240604258895</v>
       </c>
       <c r="D21">
-        <v>0.05709577075005967</v>
+        <v>0.0571962968315205</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7714236181363816</v>
+        <v>0.7704610754139196</v>
       </c>
       <c r="G21">
-        <v>0.4623306268658141</v>
+        <v>0.1575393032379324</v>
       </c>
       <c r="H21">
-        <v>0.09958416701919859</v>
+        <v>0.3081926037596006</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.09929259664628631</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.455076236744674</v>
+        <v>6.454761126226174</v>
       </c>
       <c r="C22">
-        <v>1.968681856467072</v>
+        <v>1.968154948012852</v>
       </c>
       <c r="D22">
-        <v>0.06083442187588162</v>
+        <v>0.06094157081657414</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.836361066415094</v>
+        <v>0.8353176734501488</v>
       </c>
       <c r="G22">
-        <v>0.5015536442533985</v>
+        <v>0.1727193172187711</v>
       </c>
       <c r="H22">
-        <v>0.1041408514471165</v>
+        <v>0.332118323333745</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1038255463305333</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.210621752607608</v>
+        <v>6.210336717322718</v>
       </c>
       <c r="C23">
-        <v>1.893807672609171</v>
+        <v>1.8933081367922</v>
       </c>
       <c r="D23">
-        <v>0.05883126136938444</v>
+        <v>0.05893489814930319</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8012534628502834</v>
+        <v>0.8002537580038762</v>
       </c>
       <c r="G23">
-        <v>0.4802647212894016</v>
+        <v>0.1645006411046808</v>
       </c>
       <c r="H23">
-        <v>0.1014697896865577</v>
+        <v>0.3191113924020144</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1011674137019902</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.294337270772303</v>
+        <v>5.294153146134363</v>
       </c>
       <c r="C24">
-        <v>1.613711134403729</v>
+        <v>1.613309461476717</v>
       </c>
       <c r="D24">
-        <v>0.05140302261478524</v>
+        <v>0.0514928867807356</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6775927756608695</v>
+        <v>0.6767476035087725</v>
       </c>
       <c r="G24">
-        <v>0.4069890348784782</v>
+        <v>0.1357886017674517</v>
       </c>
       <c r="H24">
-        <v>0.09633128186678874</v>
+        <v>0.2747728558970124</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0960725272701346</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.321482491849395</v>
+        <v>4.321385608330786</v>
       </c>
       <c r="C25">
-        <v>1.317234757519429</v>
+        <v>1.316929137507429</v>
       </c>
       <c r="D25">
-        <v>0.04365789308128853</v>
+        <v>0.04373203909424461</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5607740179225331</v>
+        <v>0.5600770900090026</v>
       </c>
       <c r="G25">
-        <v>0.341070758251341</v>
+        <v>0.1090930146823581</v>
       </c>
       <c r="H25">
-        <v>0.09981896165399107</v>
+        <v>0.235767997447013</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.09959809511083506</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.614022924991559</v>
+        <v>2.337718676846066</v>
       </c>
       <c r="C2">
-        <v>1.101965819142322</v>
+        <v>0.5231698652548289</v>
       </c>
       <c r="D2">
-        <v>0.03818531278609072</v>
+        <v>0.009536520644378044</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.48549332947983</v>
+        <v>6.722969873913001</v>
       </c>
       <c r="G2">
-        <v>0.09233549400406815</v>
+        <v>0.00080780442313231</v>
       </c>
       <c r="H2">
-        <v>0.2131445071562794</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1085486070602819</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4361052920851876</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.639691298824367</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.138259321190333</v>
+        <v>2.015117021374863</v>
       </c>
       <c r="C3">
-        <v>0.9576303931679888</v>
+        <v>0.4470600073908031</v>
       </c>
       <c r="D3">
-        <v>0.03450486097188588</v>
+        <v>0.007317641382122986</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4407400592280482</v>
+        <v>5.985306390896909</v>
       </c>
       <c r="G3">
-        <v>0.08244834865543993</v>
+        <v>0.0008191101091019933</v>
       </c>
       <c r="H3">
-        <v>0.200966664429572</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1179669075762959</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3826933930941863</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5500854655102287</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847366866804634</v>
+        <v>1.822665545327908</v>
       </c>
       <c r="C4">
-        <v>0.8694725528236802</v>
+        <v>0.4017605231818777</v>
       </c>
       <c r="D4">
-        <v>0.0322764608687649</v>
+        <v>0.006094427084768483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4157432182054919</v>
+        <v>5.545263859282471</v>
       </c>
       <c r="G4">
-        <v>0.07700241039929523</v>
+        <v>0.0008261845764409774</v>
       </c>
       <c r="H4">
-        <v>0.1948536295652445</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1252220426690247</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.350976059272071</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4966598025968452</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.729060362876339</v>
+        <v>1.745461012426745</v>
       </c>
       <c r="C5">
-        <v>0.8336376719454393</v>
+        <v>0.3836079036850037</v>
       </c>
       <c r="D5">
-        <v>0.03137529775479919</v>
+        <v>0.005626068718353139</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4061292880147889</v>
+        <v>5.368728252940997</v>
       </c>
       <c r="G5">
-        <v>0.07492650700429238</v>
+        <v>0.0008291044111788772</v>
       </c>
       <c r="H5">
-        <v>0.1926792039188854</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1285237299862239</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3382864043762766</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4752330306572006</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.709427759799212</v>
+        <v>1.732709742395258</v>
       </c>
       <c r="C6">
-        <v>0.8276920212953485</v>
+        <v>0.3806108052200727</v>
       </c>
       <c r="D6">
-        <v>0.03122605213435037</v>
+        <v>0.005549985303790805</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4045660363087009</v>
+        <v>5.339570501584092</v>
       </c>
       <c r="G6">
-        <v>0.07459007907521453</v>
+        <v>0.0008295915749478929</v>
       </c>
       <c r="H6">
-        <v>0.1923365326236777</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1290921188298295</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3361925499660572</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4716944315649272</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.845770488373262</v>
+        <v>1.821619634804875</v>
       </c>
       <c r="C7">
-        <v>0.8689889398370951</v>
+        <v>0.4015145317985684</v>
       </c>
       <c r="D7">
-        <v>0.0322642806315514</v>
+        <v>0.006087994740678226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4156113090635642</v>
+        <v>5.542872326354257</v>
       </c>
       <c r="G7">
-        <v>0.07697385107287147</v>
+        <v>0.0008262238005030099</v>
       </c>
       <c r="H7">
-        <v>0.1948230557762543</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1252652047181524</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3508040131042804</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4963695075509733</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.449677982617516</v>
+        <v>2.225193664275196</v>
       </c>
       <c r="C8">
-        <v>1.052085747429146</v>
+        <v>0.4965960359486701</v>
       </c>
       <c r="D8">
-        <v>0.03690915805547235</v>
+        <v>0.008739419565749529</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4695151126416235</v>
+        <v>6.46565883024104</v>
       </c>
       <c r="G8">
-        <v>0.08878814724862849</v>
+        <v>0.0008116773409790238</v>
       </c>
       <c r="H8">
-        <v>0.2086460028470256</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1114748557276428</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4174424115553137</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6084289050478375</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.647408706111833</v>
+        <v>3.071380997575488</v>
       </c>
       <c r="C9">
-        <v>1.416160096929332</v>
+        <v>0.697192462053124</v>
       </c>
       <c r="D9">
-        <v>0.04631648561692003</v>
+        <v>0.01530211290180716</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5974376777157602</v>
+        <v>8.401113674753418</v>
       </c>
       <c r="G9">
-        <v>0.1175867759367222</v>
+        <v>0.0007840207492222595</v>
       </c>
       <c r="H9">
-        <v>0.2478671135609787</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09733585492489283</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5585314918877771</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8437362983797669</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.54138046469501</v>
+        <v>3.743222604057223</v>
       </c>
       <c r="C10">
-        <v>1.688781419657175</v>
+        <v>0.8578203136326294</v>
       </c>
       <c r="D10">
-        <v>0.05348861474500666</v>
+        <v>0.02139109295446318</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7088176526632139</v>
+        <v>9.938690068738424</v>
       </c>
       <c r="G10">
-        <v>0.1432052111062134</v>
+        <v>0.0007639290639412691</v>
       </c>
       <c r="H10">
-        <v>0.286036340604781</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.09667318336732222</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6716150331354243</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.030943922547152</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.952567316884199</v>
+        <v>4.064443031103224</v>
       </c>
       <c r="C11">
-        <v>1.814442985113544</v>
+        <v>0.9350819136903681</v>
       </c>
       <c r="D11">
-        <v>0.05682833269955978</v>
+        <v>0.02456206246096926</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7642269694350006</v>
+        <v>10.67409150441893</v>
       </c>
       <c r="G11">
-        <v>0.1560853039200936</v>
+        <v>0.0007547544244567866</v>
       </c>
       <c r="H11">
-        <v>0.3059242885561133</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0989478120252052</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7259705118623572</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.120580904890858</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.109057474548081</v>
+        <v>4.188812727837785</v>
       </c>
       <c r="C12">
-        <v>1.862313235091847</v>
+        <v>0.965079505853879</v>
       </c>
       <c r="D12">
-        <v>0.05810603052873375</v>
+        <v>0.02583394750525159</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7859813394269537</v>
+        <v>10.95886053945304</v>
       </c>
       <c r="G12">
-        <v>0.1611631754549947</v>
+        <v>0.0007512665447819688</v>
       </c>
       <c r="H12">
-        <v>0.3138647711328915</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1002233350385282</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7470627224757607</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.155309788613309</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.075317428205892</v>
+        <v>4.161897195763288</v>
       </c>
       <c r="C13">
-        <v>1.851990016508296</v>
+        <v>0.958583552855373</v>
       </c>
       <c r="D13">
-        <v>0.05783024290057881</v>
+        <v>0.02555661498099937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.781260266304173</v>
+        <v>10.89723049119914</v>
       </c>
       <c r="G13">
-        <v>0.160060236166828</v>
+        <v>0.0007520184851166743</v>
       </c>
       <c r="H13">
-        <v>0.3121356472960173</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09992946001176506</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7424958644243702</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.147792799170915</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.965425354427111</v>
+        <v>4.074617125460691</v>
       </c>
       <c r="C14">
-        <v>1.818375291522045</v>
+        <v>0.9375341036410134</v>
       </c>
       <c r="D14">
-        <v>0.05693317676764309</v>
+        <v>0.0246651883144402</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7660006893437838</v>
+        <v>10.69738637884609</v>
       </c>
       <c r="G14">
-        <v>0.156498898094533</v>
+        <v>0.0007544678034568572</v>
       </c>
       <c r="H14">
-        <v>0.306569069199341</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09904418186275876</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7276949975576912</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.123421415146595</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898219417986525</v>
+        <v>4.021527328094692</v>
       </c>
       <c r="C15">
-        <v>1.797823941448314</v>
+        <v>0.9247416991710509</v>
       </c>
       <c r="D15">
-        <v>0.05638545502698378</v>
+        <v>0.02412887412591402</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7567571481966411</v>
+        <v>10.57583206313768</v>
       </c>
       <c r="G15">
-        <v>0.1543443436135377</v>
+        <v>0.0007559660192096375</v>
       </c>
       <c r="H15">
-        <v>0.303214150854167</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09855724015038803</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.718698311573462</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.108600214610973</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.514610358495929</v>
+        <v>3.722583439410641</v>
       </c>
       <c r="C16">
-        <v>1.680606253855046</v>
+        <v>0.8528665470846022</v>
       </c>
       <c r="D16">
-        <v>0.05327206721578648</v>
+        <v>0.02119301559482523</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7052994322726533</v>
+        <v>9.891443988722898</v>
       </c>
       <c r="G16">
-        <v>0.1423901439876474</v>
+        <v>0.0007645272470366395</v>
       </c>
       <c r="H16">
-        <v>0.2847912622193078</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0965800002293129</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6681286865855611</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.025187465494668</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.280525362100889</v>
+        <v>3.543503240287976</v>
       </c>
       <c r="C17">
-        <v>1.609151034065292</v>
+        <v>0.8099362325937705</v>
       </c>
       <c r="D17">
-        <v>0.0513831475810349</v>
+        <v>0.01950335620117727</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.67500748344888</v>
+        <v>9.481531613781755</v>
       </c>
       <c r="G17">
-        <v>0.135387038833727</v>
+        <v>0.0007697647292331392</v>
       </c>
       <c r="H17">
-        <v>0.2741674163264207</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09605648767847086</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6379105924145279</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9752548998323789</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.146301993791951</v>
+        <v>3.441934800402521</v>
       </c>
       <c r="C18">
-        <v>1.568203489118503</v>
+        <v>0.7856286355759323</v>
       </c>
       <c r="D18">
-        <v>0.0503038165135905</v>
+        <v>0.01856830349285232</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6580247546105937</v>
+        <v>9.249066319888897</v>
       </c>
       <c r="G18">
-        <v>0.1314728558463258</v>
+        <v>0.0007727745157724018</v>
       </c>
       <c r="H18">
-        <v>0.2682914314359763</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09599496940322538</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6207978191309991</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9469462787403415</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.100923906445246</v>
+        <v>3.407778392249554</v>
       </c>
       <c r="C19">
-        <v>1.55436400459223</v>
+        <v>0.7774608436632775</v>
       </c>
       <c r="D19">
-        <v>0.04993954236672238</v>
+        <v>0.01825766704607545</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6523477420352037</v>
+        <v>9.170894641851987</v>
       </c>
       <c r="G19">
-        <v>0.1301664356326242</v>
+        <v>0.0007737933553832495</v>
       </c>
       <c r="H19">
-        <v>0.2663408813459966</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09601403350452031</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6150472777396914</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9374282327733141</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.305400121268406</v>
+        <v>3.56241501812741</v>
       </c>
       <c r="C20">
-        <v>1.616741539863142</v>
+        <v>0.8144655069466182</v>
       </c>
       <c r="D20">
-        <v>0.05158347559705589</v>
+        <v>0.01967932712850384</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6781859111891748</v>
+        <v>9.524817967363646</v>
       </c>
       <c r="G20">
-        <v>0.1361205850706639</v>
+        <v>0.0007692075243923992</v>
       </c>
       <c r="H20">
-        <v>0.2752737462343759</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09608711771608469</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6410990407868695</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9805268048190925</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997680943276691</v>
+        <v>4.100174905935376</v>
       </c>
       <c r="C21">
-        <v>1.828240604258895</v>
+        <v>0.9436955023754763</v>
       </c>
       <c r="D21">
-        <v>0.0571962968315205</v>
+        <v>0.02492496991236237</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7704610754139196</v>
+        <v>10.75590473030917</v>
       </c>
       <c r="G21">
-        <v>0.1575393032379324</v>
+        <v>0.0007537488269604065</v>
       </c>
       <c r="H21">
-        <v>0.3081926037596006</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09929259664628631</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7320277467571543</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.130557291936952</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.454761126226174</v>
+        <v>4.467851752283309</v>
       </c>
       <c r="C22">
-        <v>1.968154948012852</v>
+        <v>1.032556551629483</v>
       </c>
       <c r="D22">
-        <v>0.06094157081657414</v>
+        <v>0.0287763701961623</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8353176734501488</v>
+        <v>11.59783953682438</v>
       </c>
       <c r="G22">
-        <v>0.1727193172187711</v>
+        <v>0.0007435607977088362</v>
       </c>
       <c r="H22">
-        <v>0.332118323333745</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1038255463305333</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.794477907295672</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.233276917536202</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.210336717322718</v>
+        <v>4.269942822959479</v>
       </c>
       <c r="C23">
-        <v>1.8933081367922</v>
+        <v>0.9846734038664238</v>
       </c>
       <c r="D23">
-        <v>0.05893489814930319</v>
+        <v>0.02667681848794246</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8002537580038762</v>
+        <v>11.14463391909379</v>
       </c>
       <c r="G23">
-        <v>0.1645006411046808</v>
+        <v>0.00074900943849876</v>
       </c>
       <c r="H23">
-        <v>0.3191113924020144</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1011674137019902</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7608355725630815</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.177971627744569</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.294153146134363</v>
+        <v>3.55386071818026</v>
       </c>
       <c r="C24">
-        <v>1.613309461476717</v>
+        <v>0.8124166682856639</v>
       </c>
       <c r="D24">
-        <v>0.0514928867807356</v>
+        <v>0.01959965840823585</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6767476035087725</v>
+        <v>9.50523832485149</v>
       </c>
       <c r="G24">
-        <v>0.1357886017674517</v>
+        <v>0.0007694594399087442</v>
       </c>
       <c r="H24">
-        <v>0.2747728558970124</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0960725272701346</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6396567399479522</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9781421463417672</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.321385608330786</v>
+        <v>2.835036448815799</v>
       </c>
       <c r="C25">
-        <v>1.316929137507429</v>
+        <v>0.6409817122503512</v>
       </c>
       <c r="D25">
-        <v>0.04373203909424461</v>
+        <v>0.01334054271060658</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5600770900090026</v>
+        <v>7.860408211198035</v>
       </c>
       <c r="G25">
-        <v>0.1090930146823581</v>
+        <v>0.0007914378891371382</v>
       </c>
       <c r="H25">
-        <v>0.235767997447013</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.09959809511083506</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5189614071671258</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7779622182918047</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.337718676846066</v>
+        <v>0.6928263173328162</v>
       </c>
       <c r="C2">
-        <v>0.5231698652548289</v>
+        <v>0.2715438366101637</v>
       </c>
       <c r="D2">
-        <v>0.009536520644378044</v>
+        <v>0.01695066494533037</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.722969873913001</v>
+        <v>3.161042249944614</v>
       </c>
       <c r="G2">
-        <v>0.00080780442313231</v>
+        <v>0.0008489561339377901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.803717894729061</v>
       </c>
       <c r="J2">
-        <v>0.4361052920851876</v>
+        <v>0.2071269948759564</v>
       </c>
       <c r="K2">
-        <v>0.639691298824367</v>
+        <v>0.9543449127968984</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3385558213807371</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.015117021374863</v>
+        <v>0.5993644583435866</v>
       </c>
       <c r="C3">
-        <v>0.4470600073908031</v>
+        <v>0.2380031891222103</v>
       </c>
       <c r="D3">
-        <v>0.007317641382122986</v>
+        <v>0.01467255261076161</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.985306390896909</v>
+        <v>2.948553942840661</v>
       </c>
       <c r="G3">
-        <v>0.0008191101091019933</v>
+        <v>0.0008559765609996255</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.697352818489932</v>
       </c>
       <c r="J3">
-        <v>0.3826933930941863</v>
+        <v>0.1908611139270491</v>
       </c>
       <c r="K3">
-        <v>0.5500854655102287</v>
+        <v>0.8279761253324978</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2974487866638214</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.822665545327908</v>
+        <v>0.5428375064226998</v>
       </c>
       <c r="C4">
-        <v>0.4017605231818777</v>
+        <v>0.2178311456322888</v>
       </c>
       <c r="D4">
-        <v>0.006094427084768483</v>
+        <v>0.0132981247340318</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.545263859282471</v>
+        <v>2.821669332928309</v>
       </c>
       <c r="G4">
-        <v>0.0008261845764409774</v>
+        <v>0.0008604112371533129</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.633847544489271</v>
       </c>
       <c r="J4">
-        <v>0.350976059272071</v>
+        <v>0.1811613257270466</v>
       </c>
       <c r="K4">
-        <v>0.4966598025968452</v>
+        <v>0.751679182045109</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2727127853339155</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.745461012426745</v>
+        <v>0.5199925222933928</v>
       </c>
       <c r="C5">
-        <v>0.3836079036850037</v>
+        <v>0.2097053964389204</v>
       </c>
       <c r="D5">
-        <v>0.005626068718353139</v>
+        <v>0.01274372809666247</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.368728252940997</v>
+        <v>2.770789156034439</v>
       </c>
       <c r="G5">
-        <v>0.0008291044111788772</v>
+        <v>0.0008622506688610491</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.608384042048471</v>
       </c>
       <c r="J5">
-        <v>0.3382864043762766</v>
+        <v>0.1772750649078105</v>
       </c>
       <c r="K5">
-        <v>0.4752330306572006</v>
+        <v>0.7208754444938847</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.262746806978793</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.732709742395258</v>
+        <v>0.5162098990012396</v>
       </c>
       <c r="C6">
-        <v>0.3806108052200727</v>
+        <v>0.2083615077413725</v>
       </c>
       <c r="D6">
-        <v>0.005549985303790805</v>
+        <v>0.01265200296219149</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.339570501584092</v>
+        <v>2.76238835735532</v>
       </c>
       <c r="G6">
-        <v>0.0008295915749478929</v>
+        <v>0.0008625580834952387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.604179873459884</v>
       </c>
       <c r="J6">
-        <v>0.3361925499660572</v>
+        <v>0.1766336071255736</v>
       </c>
       <c r="K6">
-        <v>0.4716944315649272</v>
+        <v>0.7157768498488508</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2610985075210088</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.821619634804875</v>
+        <v>0.5425286735867587</v>
       </c>
       <c r="C7">
-        <v>0.4015145317985684</v>
+        <v>0.2177211909386187</v>
       </c>
       <c r="D7">
-        <v>0.006087994740678226</v>
+        <v>0.01329062543430481</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.542872326354257</v>
+        <v>2.820979894539363</v>
       </c>
       <c r="G7">
-        <v>0.0008262238005030099</v>
+        <v>0.0008604359123654684</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.633502501201804</v>
       </c>
       <c r="J7">
-        <v>0.3508040131042804</v>
+        <v>0.1811086524693479</v>
       </c>
       <c r="K7">
-        <v>0.4963695075509733</v>
+        <v>0.7512626340268582</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2725779344563009</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.225193664275196</v>
+        <v>0.6604062388856562</v>
       </c>
       <c r="C8">
-        <v>0.4965960359486701</v>
+        <v>0.259884157540597</v>
       </c>
       <c r="D8">
-        <v>0.008739419565749529</v>
+        <v>0.01615985179545376</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.46565883024104</v>
+        <v>3.086985611465195</v>
       </c>
       <c r="G8">
-        <v>0.0008116773409790238</v>
+        <v>0.0008513516779148356</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.766645182797404</v>
       </c>
       <c r="J8">
-        <v>0.4174424115553137</v>
+        <v>0.2014552053704861</v>
       </c>
       <c r="K8">
-        <v>0.6084289050478375</v>
+        <v>0.910480913533064</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3242696754458336</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.071380997575488</v>
+        <v>0.8996556516986232</v>
       </c>
       <c r="C9">
-        <v>0.697192462053124</v>
+        <v>0.3464890592505014</v>
       </c>
       <c r="D9">
-        <v>0.01530211290180716</v>
+        <v>0.02200079614654982</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.401113674753418</v>
+        <v>3.640748375234068</v>
       </c>
       <c r="G9">
-        <v>0.0007840207492222595</v>
+        <v>0.0008344705067230605</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.043917178987641</v>
       </c>
       <c r="J9">
-        <v>0.5585314918877771</v>
+        <v>0.2439229972585792</v>
       </c>
       <c r="K9">
-        <v>0.8437362983797669</v>
+        <v>1.234830200870761</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.430255996339703</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.743222604057223</v>
+        <v>1.082328471881169</v>
       </c>
       <c r="C10">
-        <v>0.8578203136326294</v>
+        <v>0.4133956366688949</v>
       </c>
       <c r="D10">
-        <v>0.02139109295446318</v>
+        <v>0.02645560212579312</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.938690068738424</v>
+        <v>4.072833402343605</v>
       </c>
       <c r="G10">
-        <v>0.0007639290639412691</v>
+        <v>0.0008225579765385636</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.260355700576667</v>
       </c>
       <c r="J10">
-        <v>0.6716150331354243</v>
+        <v>0.2771296946748265</v>
       </c>
       <c r="K10">
-        <v>1.030943922547152</v>
+        <v>1.48337626838736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5118946018056789</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.064443031103224</v>
+        <v>1.167420522703623</v>
       </c>
       <c r="C11">
-        <v>0.9350819136903681</v>
+        <v>0.4447682053374535</v>
       </c>
       <c r="D11">
-        <v>0.02456206246096926</v>
+        <v>0.02852585187875434</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.67409150441893</v>
+        <v>4.27629055934591</v>
       </c>
       <c r="G11">
-        <v>0.0007547544244567866</v>
+        <v>0.0008172256177426369</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.362296727431627</v>
       </c>
       <c r="J11">
-        <v>0.7259705118623572</v>
+        <v>0.2927817690687675</v>
       </c>
       <c r="K11">
-        <v>1.120580904890858</v>
+        <v>1.599388229640937</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.550092021840193</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.188812727837785</v>
+        <v>1.199975218448174</v>
       </c>
       <c r="C12">
-        <v>0.965079505853879</v>
+        <v>0.4568038214502792</v>
       </c>
       <c r="D12">
-        <v>0.02583394750525159</v>
+        <v>0.02931683950475161</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.95886053945304</v>
+        <v>4.354458169223506</v>
       </c>
       <c r="G12">
-        <v>0.0007512665447819688</v>
+        <v>0.0008152170666029246</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.401466375872204</v>
       </c>
       <c r="J12">
-        <v>0.7470627224757607</v>
+        <v>0.2987976074767147</v>
       </c>
       <c r="K12">
-        <v>1.155309788613309</v>
+        <v>1.643809797062232</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.5647310996732671</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.161897195763288</v>
+        <v>1.192948428940753</v>
       </c>
       <c r="C13">
-        <v>0.958583552855373</v>
+        <v>0.4542044624137702</v>
       </c>
       <c r="D13">
-        <v>0.02555661498099937</v>
+        <v>0.02914616097206846</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.89723049119914</v>
+        <v>4.337571206301646</v>
       </c>
       <c r="G13">
-        <v>0.0007520184851166743</v>
+        <v>0.0008156491984131805</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.39300415428319</v>
       </c>
       <c r="J13">
-        <v>0.7424958644243702</v>
+        <v>0.2974978680891383</v>
       </c>
       <c r="K13">
-        <v>1.147792799170915</v>
+        <v>1.634219869218583</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.5615701700977311</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.074617125460691</v>
+        <v>1.170091880832729</v>
       </c>
       <c r="C14">
-        <v>0.9375341036410134</v>
+        <v>0.4457551382387237</v>
       </c>
       <c r="D14">
-        <v>0.0246651883144402</v>
+        <v>0.02859078153280592</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.69738637884609</v>
+        <v>4.28269815418551</v>
       </c>
       <c r="G14">
-        <v>0.0007544678034568572</v>
+        <v>0.0008170601694130056</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.365507474732169</v>
       </c>
       <c r="J14">
-        <v>0.7276949975576912</v>
+        <v>0.2932748549102087</v>
       </c>
       <c r="K14">
-        <v>1.123421415146595</v>
+        <v>1.603032583504046</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.551292753741123</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.021527328094692</v>
+        <v>1.156136282519839</v>
       </c>
       <c r="C15">
-        <v>0.9247416991710509</v>
+        <v>0.4406005938655539</v>
       </c>
       <c r="D15">
-        <v>0.02412887412591402</v>
+        <v>0.02825153419233573</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.57583206313768</v>
+        <v>4.249237165425455</v>
       </c>
       <c r="G15">
-        <v>0.0007559660192096375</v>
+        <v>0.0008179257672326811</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.348740859866567</v>
       </c>
       <c r="J15">
-        <v>0.718698311573462</v>
+        <v>0.2907000151793113</v>
       </c>
       <c r="K15">
-        <v>1.108600214610973</v>
+        <v>1.583995431055655</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5450209698515991</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.722583439410641</v>
+        <v>1.076811398205763</v>
       </c>
       <c r="C16">
-        <v>0.8528665470846022</v>
+        <v>0.4113659380082595</v>
       </c>
       <c r="D16">
-        <v>0.02119301559482523</v>
+        <v>0.02632124809349534</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.891443988722898</v>
+        <v>4.059686688851428</v>
       </c>
       <c r="G16">
-        <v>0.0007645272470366395</v>
+        <v>0.0008229080562841291</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.253769173078567</v>
       </c>
       <c r="J16">
-        <v>0.6681286865855611</v>
+        <v>0.2761186323538993</v>
       </c>
       <c r="K16">
-        <v>1.025187465494668</v>
+        <v>1.475859442279955</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5094214737159461</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.543503240287976</v>
+        <v>1.028689562747871</v>
       </c>
       <c r="C17">
-        <v>0.8099362325937705</v>
+        <v>0.3936853765697492</v>
       </c>
       <c r="D17">
-        <v>0.01950335620117727</v>
+        <v>0.02514878558947942</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.481531613781755</v>
+        <v>3.945259414572661</v>
       </c>
       <c r="G17">
-        <v>0.0007697647292331392</v>
+        <v>0.0008259855330985306</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.196443816819823</v>
       </c>
       <c r="J17">
-        <v>0.6379105924145279</v>
+        <v>0.2673202348951804</v>
       </c>
       <c r="K17">
-        <v>0.9752548998323789</v>
+        <v>1.410321450747858</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.4878687625606872</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.441934800402521</v>
+        <v>1.001195768173716</v>
       </c>
       <c r="C18">
-        <v>0.7856286355759323</v>
+        <v>0.3836027477170774</v>
       </c>
       <c r="D18">
-        <v>0.01856830349285232</v>
+        <v>0.02447848436555233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.249066319888897</v>
+        <v>3.880084687572435</v>
       </c>
       <c r="G18">
-        <v>0.0007727745157724018</v>
+        <v>0.0008277638942588705</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.163795189165825</v>
       </c>
       <c r="J18">
-        <v>0.6207978191309991</v>
+        <v>0.2623103669679097</v>
       </c>
       <c r="K18">
-        <v>0.9469462787403415</v>
+        <v>1.372898734136044</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.475570486708456</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.407778392249554</v>
+        <v>0.9919172402369156</v>
       </c>
       <c r="C19">
-        <v>0.7774608436632775</v>
+        <v>0.3802032466824414</v>
       </c>
       <c r="D19">
-        <v>0.01825766704607545</v>
+        <v>0.02425220924425986</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.170894641851987</v>
+        <v>3.858123947171691</v>
       </c>
       <c r="G19">
-        <v>0.0007737933553832495</v>
+        <v>0.0008283674896350183</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.152794567884797</v>
       </c>
       <c r="J19">
-        <v>0.6150472777396914</v>
+        <v>0.2606225327879343</v>
       </c>
       <c r="K19">
-        <v>0.9374282327733141</v>
+        <v>1.360273022508608</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4714227432710061</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.56241501812741</v>
+        <v>1.033792793254776</v>
       </c>
       <c r="C20">
-        <v>0.8144655069466182</v>
+        <v>0.3955583793373592</v>
       </c>
       <c r="D20">
-        <v>0.01967932712850384</v>
+        <v>0.02527317005584706</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.524817967363646</v>
+        <v>3.957373168951449</v>
       </c>
       <c r="G20">
-        <v>0.0007692075243923992</v>
+        <v>0.0008256570859901415</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.202512271544364</v>
       </c>
       <c r="J20">
-        <v>0.6410990407868695</v>
+        <v>0.2682515177681353</v>
       </c>
       <c r="K20">
-        <v>0.9805268048190925</v>
+        <v>1.417269368009954</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4901527615020811</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.100174905935376</v>
+        <v>1.176795999689233</v>
       </c>
       <c r="C21">
-        <v>0.9436955023754763</v>
+        <v>0.4482325111823968</v>
       </c>
       <c r="D21">
-        <v>0.02492496991236237</v>
+        <v>0.02875371290643614</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.75590473030917</v>
+        <v>4.298784115573937</v>
       </c>
       <c r="G21">
-        <v>0.0007537488269604065</v>
+        <v>0.0008166454576664872</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.373567971434341</v>
       </c>
       <c r="J21">
-        <v>0.7320277467571543</v>
+        <v>0.2945127611421583</v>
       </c>
       <c r="K21">
-        <v>1.130557291936952</v>
+        <v>1.612179169767785</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.554306554115783</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.467851752283309</v>
+        <v>1.272217964866883</v>
       </c>
       <c r="C22">
-        <v>1.032556551629483</v>
+        <v>0.483575962055113</v>
       </c>
       <c r="D22">
-        <v>0.0287763701961623</v>
+        <v>0.03106981754171301</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.59783953682438</v>
+        <v>4.52853163737268</v>
       </c>
       <c r="G22">
-        <v>0.0007435607977088362</v>
+        <v>0.0008108172306968023</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.488702438957873</v>
       </c>
       <c r="J22">
-        <v>0.794477907295672</v>
+        <v>0.3121987931968562</v>
       </c>
       <c r="K22">
-        <v>1.233276917536202</v>
+        <v>1.742458593264018</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5972642543946023</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.269942822959479</v>
+        <v>1.221093628581855</v>
       </c>
       <c r="C23">
-        <v>0.9846734038664238</v>
+        <v>0.4646209850102991</v>
       </c>
       <c r="D23">
-        <v>0.02667681848794246</v>
+        <v>0.0298296194003953</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.14463391909379</v>
+        <v>4.405258759858867</v>
       </c>
       <c r="G23">
-        <v>0.00074900943849876</v>
+        <v>0.0008139228823619696</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.42692368851219</v>
       </c>
       <c r="J23">
-        <v>0.7608355725630815</v>
+        <v>0.3027079227176017</v>
       </c>
       <c r="K23">
-        <v>1.177971627744569</v>
+        <v>1.672637173645086</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5742347422840908</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.55386071818026</v>
+        <v>1.031485090101967</v>
       </c>
       <c r="C24">
-        <v>0.8124166682856639</v>
+        <v>0.3947113404174729</v>
       </c>
       <c r="D24">
-        <v>0.01959965840823585</v>
+        <v>0.02521692417244026</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.50523832485149</v>
+        <v>3.951894647052853</v>
       </c>
       <c r="G24">
-        <v>0.0007694594399087442</v>
+        <v>0.0008258055485845251</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.199767767213615</v>
       </c>
       <c r="J24">
-        <v>0.6396567399479522</v>
+        <v>0.2678303346334445</v>
       </c>
       <c r="K24">
-        <v>0.9781421463417672</v>
+        <v>1.414127422333848</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4891198785955666</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.835036448815799</v>
+        <v>0.8338747222005907</v>
       </c>
       <c r="C25">
-        <v>0.6409817122503512</v>
+        <v>0.3225539357029561</v>
       </c>
       <c r="D25">
-        <v>0.01334054271060658</v>
+        <v>0.02039451158800532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.860408211198035</v>
+        <v>3.48695004115487</v>
       </c>
       <c r="G25">
-        <v>0.0007914378891371382</v>
+        <v>0.0008389451428230223</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.966896023062645</v>
       </c>
       <c r="J25">
-        <v>0.5189614071671258</v>
+        <v>0.2321164708563543</v>
       </c>
       <c r="K25">
-        <v>0.7779622182918047</v>
+        <v>1.145509118248668</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4009963580820681</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6928263173328162</v>
+        <v>0.4474447272637008</v>
       </c>
       <c r="C2">
-        <v>0.2715438366101637</v>
+        <v>0.2054119868599287</v>
       </c>
       <c r="D2">
-        <v>0.01695066494533037</v>
+        <v>0.05159773798830969</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.161042249944614</v>
+        <v>3.681058352749574</v>
       </c>
       <c r="G2">
-        <v>0.0008489561339377901</v>
+        <v>0.002583181707623449</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.803717894729061</v>
+        <v>2.0245336421671</v>
       </c>
       <c r="J2">
-        <v>0.2071269948759564</v>
+        <v>0.2839615490135117</v>
       </c>
       <c r="K2">
-        <v>0.9543449127968984</v>
+        <v>0.6516171022354342</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3385558213807371</v>
+        <v>0.3363450314127903</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5993644583435866</v>
+        <v>0.4276025166107331</v>
       </c>
       <c r="C3">
-        <v>0.2380031891222103</v>
+        <v>0.1979779558425321</v>
       </c>
       <c r="D3">
-        <v>0.01467255261076161</v>
+        <v>0.05207506493093206</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.948553942840661</v>
+        <v>3.630101729478824</v>
       </c>
       <c r="G3">
-        <v>0.0008559765609996255</v>
+        <v>0.002587446606767347</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.697352818489932</v>
+        <v>1.996558129882715</v>
       </c>
       <c r="J3">
-        <v>0.1908611139270491</v>
+        <v>0.2810608648078343</v>
       </c>
       <c r="K3">
-        <v>0.8279761253324978</v>
+        <v>0.6245140108728151</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2974487866638214</v>
+        <v>0.3287900991370947</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5428375064226998</v>
+        <v>0.4157915159369452</v>
       </c>
       <c r="C4">
-        <v>0.2178311456322888</v>
+        <v>0.1935475632507604</v>
       </c>
       <c r="D4">
-        <v>0.0132981247340318</v>
+        <v>0.05241725743582748</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.821669332928309</v>
+        <v>3.599933670608294</v>
       </c>
       <c r="G4">
-        <v>0.0008604112371533129</v>
+        <v>0.002590203233920896</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.633847544489271</v>
+        <v>1.97986750696586</v>
       </c>
       <c r="J4">
-        <v>0.1811613257270466</v>
+        <v>0.2794003651160324</v>
       </c>
       <c r="K4">
-        <v>0.751679182045109</v>
+        <v>0.6083784337099871</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2727127853339155</v>
+        <v>0.3243874588267914</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5199925222933928</v>
+        <v>0.4110720037350575</v>
       </c>
       <c r="C5">
-        <v>0.2097053964389204</v>
+        <v>0.1917757750057234</v>
       </c>
       <c r="D5">
-        <v>0.01274372809666247</v>
+        <v>0.05256908644040692</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.770789156034439</v>
+        <v>3.587920868856898</v>
       </c>
       <c r="G5">
-        <v>0.0008622506688610491</v>
+        <v>0.002591361386652643</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.608384042048471</v>
+        <v>1.973187861491454</v>
       </c>
       <c r="J5">
-        <v>0.1772750649078105</v>
+        <v>0.2787539838907946</v>
       </c>
       <c r="K5">
-        <v>0.7208754444938847</v>
+        <v>0.6019301188730424</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.262746806978793</v>
+        <v>0.3226527109224406</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5162098990012396</v>
+        <v>0.4102939829156753</v>
       </c>
       <c r="C6">
-        <v>0.2083615077413725</v>
+        <v>0.1914835994882367</v>
       </c>
       <c r="D6">
-        <v>0.01265200296219149</v>
+        <v>0.05259504640304513</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.76238835735532</v>
+        <v>3.585943102698536</v>
       </c>
       <c r="G6">
-        <v>0.0008625580834952387</v>
+        <v>0.002591555802550993</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.604179873459884</v>
+        <v>1.972086063287705</v>
       </c>
       <c r="J6">
-        <v>0.1766336071255736</v>
+        <v>0.2786484813275933</v>
       </c>
       <c r="K6">
-        <v>0.7157768498488508</v>
+        <v>0.6008670518028509</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2610985075210088</v>
+        <v>0.3223682425516863</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5425286735867587</v>
+        <v>0.4157274881293631</v>
       </c>
       <c r="C7">
-        <v>0.2177211909386187</v>
+        <v>0.1935235322436881</v>
       </c>
       <c r="D7">
-        <v>0.01329062543430481</v>
+        <v>0.052419254872202</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.820979894539363</v>
+        <v>3.599770525089127</v>
       </c>
       <c r="G7">
-        <v>0.0008604359123654684</v>
+        <v>0.002590218711958276</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.633502501201804</v>
+        <v>1.979776929832866</v>
       </c>
       <c r="J7">
-        <v>0.1811086524693479</v>
+        <v>0.2793915251947965</v>
       </c>
       <c r="K7">
-        <v>0.7512626340268582</v>
+        <v>0.6082909551734019</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2725779344563009</v>
+        <v>0.3243638230598123</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6604062388856562</v>
+        <v>0.4405258586890568</v>
       </c>
       <c r="C8">
-        <v>0.259884157540597</v>
+        <v>0.2028208326328809</v>
       </c>
       <c r="D8">
-        <v>0.01615985179545376</v>
+        <v>0.05175214683380602</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.086985611465195</v>
+        <v>3.663255780807063</v>
       </c>
       <c r="G8">
-        <v>0.0008513516779148356</v>
+        <v>0.00258462367925036</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.766645182797404</v>
+        <v>2.014786467963532</v>
       </c>
       <c r="J8">
-        <v>0.2014552053704861</v>
+        <v>0.2829363611599476</v>
       </c>
       <c r="K8">
-        <v>0.910480913533064</v>
+        <v>0.6421668793763047</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3242696754458336</v>
+        <v>0.3336910739229353</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8996556516986232</v>
+        <v>0.4921134292041813</v>
       </c>
       <c r="C9">
-        <v>0.3464890592505014</v>
+        <v>0.2221227114975761</v>
       </c>
       <c r="D9">
-        <v>0.02200079614654982</v>
+        <v>0.0508322447192171</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.640748375234068</v>
+        <v>3.796668332799101</v>
       </c>
       <c r="G9">
-        <v>0.0008344705067230605</v>
+        <v>0.002574741317243445</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.043917178987641</v>
+        <v>2.087322557746859</v>
       </c>
       <c r="J9">
-        <v>0.2439229972585792</v>
+        <v>0.2908458624340682</v>
       </c>
       <c r="K9">
-        <v>1.234830200870761</v>
+        <v>0.7126218557368702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.430255996339703</v>
+        <v>0.3538574008304423</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.082328471881169</v>
+        <v>0.5318301109661832</v>
       </c>
       <c r="C10">
-        <v>0.4133956366688949</v>
+        <v>0.2369656842307961</v>
       </c>
       <c r="D10">
-        <v>0.02645560212579312</v>
+        <v>0.05039135316724952</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.072833402343605</v>
+        <v>3.900185158826559</v>
       </c>
       <c r="G10">
-        <v>0.0008225579765385636</v>
+        <v>0.002568137652582662</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.260355700576667</v>
+        <v>2.143019548570635</v>
       </c>
       <c r="J10">
-        <v>0.2771296946748265</v>
+        <v>0.2972444249421642</v>
       </c>
       <c r="K10">
-        <v>1.48337626838736</v>
+        <v>0.7668606505894218</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5118946018056789</v>
+        <v>0.3698223649033707</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.167420522703623</v>
+        <v>0.5502954322676032</v>
       </c>
       <c r="C11">
-        <v>0.4447682053374535</v>
+        <v>0.2438640794210016</v>
       </c>
       <c r="D11">
-        <v>0.02852585187875434</v>
+        <v>0.0502414423970734</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.27629055934591</v>
+        <v>3.948485821405399</v>
       </c>
       <c r="G11">
-        <v>0.0008172256177426369</v>
+        <v>0.002565274566102589</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.362296727431627</v>
+        <v>2.16888827265791</v>
       </c>
       <c r="J11">
-        <v>0.2927817690687675</v>
+        <v>0.3002836596109972</v>
       </c>
       <c r="K11">
-        <v>1.599388229640937</v>
+        <v>0.7920781459226873</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.550092021840193</v>
+        <v>0.3773360275259847</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.199975218448174</v>
+        <v>0.5573451469054476</v>
       </c>
       <c r="C12">
-        <v>0.4568038214502792</v>
+        <v>0.2464974983916193</v>
       </c>
       <c r="D12">
-        <v>0.02931683950475161</v>
+        <v>0.05019192888180868</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.354458169223506</v>
+        <v>3.966950957744302</v>
       </c>
       <c r="G12">
-        <v>0.0008152170666029246</v>
+        <v>0.002564210540529839</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.401466375872204</v>
+        <v>2.17876112527108</v>
       </c>
       <c r="J12">
-        <v>0.2987976074767147</v>
+        <v>0.3014530633421657</v>
       </c>
       <c r="K12">
-        <v>1.643809797062232</v>
+        <v>0.801705881211177</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5647310996732671</v>
+        <v>0.3802174333785047</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.192948428940753</v>
+        <v>0.5558243152576097</v>
       </c>
       <c r="C13">
-        <v>0.4542044624137702</v>
+        <v>0.245929402141968</v>
       </c>
       <c r="D13">
-        <v>0.02914616097206846</v>
+        <v>0.05020227032292013</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.337571206301646</v>
+        <v>3.962966378483117</v>
       </c>
       <c r="G13">
-        <v>0.0008156491984131805</v>
+        <v>0.002564438802481154</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.39300415428319</v>
+        <v>2.17663140131252</v>
       </c>
       <c r="J13">
-        <v>0.2974978680891383</v>
+        <v>0.3012003874710842</v>
       </c>
       <c r="K13">
-        <v>1.634219869218583</v>
+        <v>0.7996288854006934</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5615701700977311</v>
+        <v>0.3795952629459336</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.170091880832729</v>
+        <v>0.5508742677937732</v>
       </c>
       <c r="C14">
-        <v>0.4457551382387237</v>
+        <v>0.2440803079091722</v>
       </c>
       <c r="D14">
-        <v>0.02859078153280592</v>
+        <v>0.05023722366693306</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.28269815418551</v>
+        <v>3.950001453652362</v>
       </c>
       <c r="G14">
-        <v>0.0008170601694130056</v>
+        <v>0.002565186624490575</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.365507474732169</v>
+        <v>2.169698973877857</v>
       </c>
       <c r="J14">
-        <v>0.2932748549102087</v>
+        <v>0.3003794959637816</v>
       </c>
       <c r="K14">
-        <v>1.603032583504046</v>
+        <v>0.7928686527794753</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.551292753741123</v>
+        <v>0.3775723579166836</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.156136282519839</v>
+        <v>0.54784968476676</v>
       </c>
       <c r="C15">
-        <v>0.4406005938655539</v>
+        <v>0.2429504416552675</v>
       </c>
       <c r="D15">
-        <v>0.02825153419233573</v>
+        <v>0.05025957747771059</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.249237165425455</v>
+        <v>3.942082837272068</v>
       </c>
       <c r="G15">
-        <v>0.0008179257672326811</v>
+        <v>0.002565647309736527</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.348740859866567</v>
+        <v>2.165462693442748</v>
       </c>
       <c r="J15">
-        <v>0.2907000151793113</v>
+        <v>0.2998790879814095</v>
       </c>
       <c r="K15">
-        <v>1.583995431055655</v>
+        <v>0.788738033136525</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5450209698515991</v>
+        <v>0.3763379783684968</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.076811398205763</v>
+        <v>0.5306313731281875</v>
       </c>
       <c r="C16">
-        <v>0.4113659380082595</v>
+        <v>0.2365178106769008</v>
       </c>
       <c r="D16">
-        <v>0.02632124809349534</v>
+        <v>0.05040216693272725</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.059686688851428</v>
+        <v>3.89705300988112</v>
       </c>
       <c r="G16">
-        <v>0.0008229080562841291</v>
+        <v>0.00256832758944725</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.253769173078567</v>
+        <v>2.141339707378506</v>
       </c>
       <c r="J16">
-        <v>0.2761186323538993</v>
+        <v>0.2970483923615888</v>
       </c>
       <c r="K16">
-        <v>1.475859442279955</v>
+        <v>0.7652235907019644</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5094214737159461</v>
+        <v>0.3693363854114722</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.028689562747871</v>
+        <v>0.5201704798021183</v>
       </c>
       <c r="C17">
-        <v>0.3936853765697492</v>
+        <v>0.2326091401508563</v>
       </c>
       <c r="D17">
-        <v>0.02514878558947942</v>
+        <v>0.05050259332389828</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.945259414572661</v>
+        <v>3.869739146636533</v>
       </c>
       <c r="G17">
-        <v>0.0008259855330985306</v>
+        <v>0.002570007880349931</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.196443816819823</v>
+        <v>2.126677580176036</v>
       </c>
       <c r="J17">
-        <v>0.2673202348951804</v>
+        <v>0.2953447871216213</v>
       </c>
       <c r="K17">
-        <v>1.410321450747858</v>
+        <v>0.7509377056605047</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4878687625606872</v>
+        <v>0.3651054761952821</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.001195768173716</v>
+        <v>0.5141911083198067</v>
       </c>
       <c r="C18">
-        <v>0.3836027477170774</v>
+        <v>0.2303747351743084</v>
       </c>
       <c r="D18">
-        <v>0.02447848436555233</v>
+        <v>0.05056512535892921</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.880084687572435</v>
+        <v>3.854142816823554</v>
       </c>
       <c r="G18">
-        <v>0.0008277638942588705</v>
+        <v>0.00257098761285443</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.163795189165825</v>
+        <v>2.118294349155391</v>
       </c>
       <c r="J18">
-        <v>0.2623103669679097</v>
+        <v>0.2943770110614139</v>
       </c>
       <c r="K18">
-        <v>1.372898734136044</v>
+        <v>0.7427720339358359</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.475570486708456</v>
+        <v>0.3626956035438766</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9919172402369156</v>
+        <v>0.5121730273597223</v>
       </c>
       <c r="C19">
-        <v>0.3802032466824414</v>
+        <v>0.2296205636693003</v>
       </c>
       <c r="D19">
-        <v>0.02425220924425986</v>
+        <v>0.05058711768845114</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.858123947171691</v>
+        <v>3.848881706287358</v>
       </c>
       <c r="G19">
-        <v>0.0008283674896350183</v>
+        <v>0.002571321616441372</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.152794567884797</v>
+        <v>2.115464511532906</v>
       </c>
       <c r="J19">
-        <v>0.2606225327879343</v>
+        <v>0.2940514146169022</v>
       </c>
       <c r="K19">
-        <v>1.360273022508608</v>
+        <v>0.7400160642895344</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4714227432710061</v>
+        <v>0.3618837203145659</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.033792793254776</v>
+        <v>0.5212801825744577</v>
       </c>
       <c r="C20">
-        <v>0.3955583793373592</v>
+        <v>0.2330237999761664</v>
       </c>
       <c r="D20">
-        <v>0.02527317005584706</v>
+        <v>0.05049140936084484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.957373168951449</v>
+        <v>3.872634962811361</v>
       </c>
       <c r="G20">
-        <v>0.0008256570859901415</v>
+        <v>0.002569827637820377</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.202512271544364</v>
+        <v>2.12823320684609</v>
       </c>
       <c r="J20">
-        <v>0.2682515177681353</v>
+        <v>0.2955248870251523</v>
       </c>
       <c r="K20">
-        <v>1.417269368009954</v>
+        <v>0.7524531630306797</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4901527615020811</v>
+        <v>0.3655534173951125</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.176795999689233</v>
+        <v>0.5523266611137103</v>
       </c>
       <c r="C21">
-        <v>0.4482325111823968</v>
+        <v>0.2446228568682614</v>
       </c>
       <c r="D21">
-        <v>0.02875371290643614</v>
+        <v>0.05022676037148699</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.298784115573937</v>
+        <v>3.95380481895603</v>
       </c>
       <c r="G21">
-        <v>0.0008166454576664872</v>
+        <v>0.002564966424735031</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.373567971434341</v>
+        <v>2.171733104500078</v>
       </c>
       <c r="J21">
-        <v>0.2945127611421583</v>
+        <v>0.3006201090257292</v>
       </c>
       <c r="K21">
-        <v>1.612179169767785</v>
+        <v>0.7948521671884805</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.554306554115783</v>
+        <v>0.3781655529118524</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.272217964866883</v>
+        <v>0.5729513422332673</v>
       </c>
       <c r="C22">
-        <v>0.483575962055113</v>
+        <v>0.2523268238566061</v>
       </c>
       <c r="D22">
-        <v>0.03106981754171301</v>
+        <v>0.05009606807091416</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.52853163737268</v>
+        <v>4.007872755525653</v>
       </c>
       <c r="G22">
-        <v>0.0008108172306968023</v>
+        <v>0.002561906820565693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.488702438957873</v>
+        <v>2.200611406460723</v>
       </c>
       <c r="J22">
-        <v>0.3121987931968562</v>
+        <v>0.3040580468916403</v>
       </c>
       <c r="K22">
-        <v>1.742458593264018</v>
+        <v>0.8230195368580553</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5972642543946023</v>
+        <v>0.3866190105111116</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.221093628581855</v>
+        <v>0.5619129762770285</v>
       </c>
       <c r="C23">
-        <v>0.4646209850102991</v>
+        <v>0.2482037497987051</v>
       </c>
       <c r="D23">
-        <v>0.0298296194003953</v>
+        <v>0.05016196279397889</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.405258759858867</v>
+        <v>3.978922239153604</v>
       </c>
       <c r="G23">
-        <v>0.0008139228823619696</v>
+        <v>0.002563529073973532</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.42692368851219</v>
+        <v>2.185157318645238</v>
       </c>
       <c r="J23">
-        <v>0.3027079227176017</v>
+        <v>0.302213269000589</v>
       </c>
       <c r="K23">
-        <v>1.672637173645086</v>
+        <v>0.8079441852052582</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5742347422840908</v>
+        <v>0.3820879501964569</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.031485090101967</v>
+        <v>0.5207783777603083</v>
       </c>
       <c r="C24">
-        <v>0.3947113404174729</v>
+        <v>0.2328362925892975</v>
       </c>
       <c r="D24">
-        <v>0.02521692417244026</v>
+        <v>0.05049645069085784</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.951894647052853</v>
+        <v>3.871325431772249</v>
       </c>
       <c r="G24">
-        <v>0.0008258055485845251</v>
+        <v>0.002569909082649377</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.199767767213615</v>
+        <v>2.127529764081871</v>
       </c>
       <c r="J24">
-        <v>0.2678303346334445</v>
+        <v>0.2954434275763589</v>
       </c>
       <c r="K24">
-        <v>1.414127422333848</v>
+        <v>0.7517678768952294</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4891198785955666</v>
+        <v>0.3653508329937551</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8338747222005907</v>
+        <v>0.4778397281536968</v>
       </c>
       <c r="C25">
-        <v>0.3225539357029561</v>
+        <v>0.2167855129421525</v>
       </c>
       <c r="D25">
-        <v>0.02039451158800532</v>
+        <v>0.05103971610161295</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.48695004115487</v>
+        <v>3.759615580763949</v>
       </c>
       <c r="G25">
-        <v>0.0008389451428230223</v>
+        <v>0.002577298875631157</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.966896023062645</v>
+        <v>2.067280069950442</v>
       </c>
       <c r="J25">
-        <v>0.2321164708563543</v>
+        <v>0.2886032172902446</v>
       </c>
       <c r="K25">
-        <v>1.145509118248668</v>
+        <v>0.6931288193439968</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4009963580820681</v>
+        <v>0.3482005362370515</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4474447272637008</v>
+        <v>0.6928263173326741</v>
       </c>
       <c r="C2">
-        <v>0.2054119868599287</v>
+        <v>0.2715438366101353</v>
       </c>
       <c r="D2">
-        <v>0.05159773798830969</v>
+        <v>0.01695066494553643</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.681058352749574</v>
+        <v>3.161042249944671</v>
       </c>
       <c r="G2">
-        <v>0.002583181707623449</v>
+        <v>0.0008489561339329524</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.0245336421671</v>
+        <v>1.80371789472909</v>
       </c>
       <c r="J2">
-        <v>0.2839615490135117</v>
+        <v>0.2071269948758925</v>
       </c>
       <c r="K2">
-        <v>0.6516171022354342</v>
+        <v>0.9543449127969268</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3363450314127903</v>
+        <v>0.3385558213807229</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4276025166107331</v>
+        <v>0.5993644583435582</v>
       </c>
       <c r="C3">
-        <v>0.1979779558425321</v>
+        <v>0.2380031891219971</v>
       </c>
       <c r="D3">
-        <v>0.05207506493093206</v>
+        <v>0.01467255261077227</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.630101729478824</v>
+        <v>2.948553942840675</v>
       </c>
       <c r="G3">
-        <v>0.002587446606767347</v>
+        <v>0.0008559765609399725</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.996558129882715</v>
+        <v>1.697352818489946</v>
       </c>
       <c r="J3">
-        <v>0.2810608648078343</v>
+        <v>0.1908611139271628</v>
       </c>
       <c r="K3">
-        <v>0.6245140108728151</v>
+        <v>0.8279761253323557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3287900991370947</v>
+        <v>0.2974487866638071</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4157915159369452</v>
+        <v>0.5428375064226714</v>
       </c>
       <c r="C4">
-        <v>0.1935475632507604</v>
+        <v>0.2178311456322461</v>
       </c>
       <c r="D4">
-        <v>0.05241725743582748</v>
+        <v>0.01329812473422365</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.599933670608294</v>
+        <v>2.821669332928309</v>
       </c>
       <c r="G4">
-        <v>0.002590203233920896</v>
+        <v>0.000860411237208713</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.97986750696586</v>
+        <v>1.633847544489242</v>
       </c>
       <c r="J4">
-        <v>0.2794003651160324</v>
+        <v>0.1811613257270324</v>
       </c>
       <c r="K4">
-        <v>0.6083784337099871</v>
+        <v>0.7516791820451658</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3243874588267914</v>
+        <v>0.2727127853339226</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4110720037350575</v>
+        <v>0.5199925222932507</v>
       </c>
       <c r="C5">
-        <v>0.1917757750057234</v>
+        <v>0.2097053964384514</v>
       </c>
       <c r="D5">
-        <v>0.05256908644040692</v>
+        <v>0.0127437280966447</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.587920868856898</v>
+        <v>2.770789156034411</v>
       </c>
       <c r="G5">
-        <v>0.002591361386652643</v>
+        <v>0.0008622506689162839</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.973187861491454</v>
+        <v>1.608384042048442</v>
       </c>
       <c r="J5">
-        <v>0.2787539838907946</v>
+        <v>0.1772750649077537</v>
       </c>
       <c r="K5">
-        <v>0.6019301188730424</v>
+        <v>0.7208754444938847</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3226527109224406</v>
+        <v>0.2627468069788002</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4102939829156753</v>
+        <v>0.5162098990011543</v>
       </c>
       <c r="C6">
-        <v>0.1914835994882367</v>
+        <v>0.208361507741003</v>
       </c>
       <c r="D6">
-        <v>0.05259504640304513</v>
+        <v>0.01265200296218083</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.585943102698536</v>
+        <v>2.76238835735532</v>
       </c>
       <c r="G6">
-        <v>0.002591555802550993</v>
+        <v>0.0008625580835452951</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.972086063287705</v>
+        <v>1.604179873459856</v>
       </c>
       <c r="J6">
-        <v>0.2786484813275933</v>
+        <v>0.1766336071255452</v>
       </c>
       <c r="K6">
-        <v>0.6008670518028509</v>
+        <v>0.7157768498487656</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3223682425516863</v>
+        <v>0.2610985075209911</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4157274881293631</v>
+        <v>0.5425286735867587</v>
       </c>
       <c r="C7">
-        <v>0.1935235322436881</v>
+        <v>0.217721190938704</v>
       </c>
       <c r="D7">
-        <v>0.052419254872202</v>
+        <v>0.01329062543440784</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.599770525089127</v>
+        <v>2.820979894539349</v>
       </c>
       <c r="G7">
-        <v>0.002590218711958276</v>
+        <v>0.0008604359123096943</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.979776929832866</v>
+        <v>1.633502501201789</v>
       </c>
       <c r="J7">
-        <v>0.2793915251947965</v>
+        <v>0.1811086524694829</v>
       </c>
       <c r="K7">
-        <v>0.6082909551734019</v>
+        <v>0.7512626340268866</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3243638230598123</v>
+        <v>0.2725779344562866</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4405258586890568</v>
+        <v>0.6604062388856562</v>
       </c>
       <c r="C8">
-        <v>0.2028208326328809</v>
+        <v>0.2598841575408244</v>
       </c>
       <c r="D8">
-        <v>0.05175214683380602</v>
+        <v>0.01615985179531165</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.663255780807063</v>
+        <v>3.086985611465153</v>
       </c>
       <c r="G8">
-        <v>0.00258462367925036</v>
+        <v>0.0008513516779078277</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.014786467963532</v>
+        <v>1.766645182797404</v>
       </c>
       <c r="J8">
-        <v>0.2829363611599476</v>
+        <v>0.2014552053704648</v>
       </c>
       <c r="K8">
-        <v>0.6421668793763047</v>
+        <v>0.9104809135331209</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3336910739229353</v>
+        <v>0.3242696754458336</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4921134292041813</v>
+        <v>0.8996556516986232</v>
       </c>
       <c r="C9">
-        <v>0.2221227114975761</v>
+        <v>0.3464890592497625</v>
       </c>
       <c r="D9">
-        <v>0.0508322447192171</v>
+        <v>0.02200079614654982</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.796668332799101</v>
+        <v>3.640748375234097</v>
       </c>
       <c r="G9">
-        <v>0.002574741317243445</v>
+        <v>0.0008344705067174702</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.087322557746859</v>
+        <v>2.043917178987655</v>
       </c>
       <c r="J9">
-        <v>0.2908458624340682</v>
+        <v>0.243922997258565</v>
       </c>
       <c r="K9">
-        <v>0.7126218557368702</v>
+        <v>1.234830200870704</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3538574008304423</v>
+        <v>0.4302559963397101</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5318301109661832</v>
+        <v>1.082328471880999</v>
       </c>
       <c r="C10">
-        <v>0.2369656842307961</v>
+        <v>0.4133956366688949</v>
       </c>
       <c r="D10">
-        <v>0.05039135316724952</v>
+        <v>0.02645560212545917</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.900185158826559</v>
+        <v>4.072833402343633</v>
       </c>
       <c r="G10">
-        <v>0.002568137652582662</v>
+        <v>0.0008225579765950286</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.143019548570635</v>
+        <v>2.260355700576682</v>
       </c>
       <c r="J10">
-        <v>0.2972444249421642</v>
+        <v>0.2771296946746844</v>
       </c>
       <c r="K10">
-        <v>0.7668606505894218</v>
+        <v>1.48337626838736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3698223649033707</v>
+        <v>0.5118946018056647</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5502954322676032</v>
+        <v>1.167420522703594</v>
       </c>
       <c r="C11">
-        <v>0.2438640794210016</v>
+        <v>0.4447682053374535</v>
       </c>
       <c r="D11">
-        <v>0.0502414423970734</v>
+        <v>0.02852585187890355</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.948485821405399</v>
+        <v>4.27629055934591</v>
       </c>
       <c r="G11">
-        <v>0.002565274566102589</v>
+        <v>0.00081722561774078</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.16888827265791</v>
+        <v>2.362296727431655</v>
       </c>
       <c r="J11">
-        <v>0.3002836596109972</v>
+        <v>0.2927817690687959</v>
       </c>
       <c r="K11">
-        <v>0.7920781459226873</v>
+        <v>1.59938822964105</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3773360275259847</v>
+        <v>0.5500920218401859</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5573451469054476</v>
+        <v>1.199975218448174</v>
       </c>
       <c r="C12">
-        <v>0.2464974983916193</v>
+        <v>0.4568038214501939</v>
       </c>
       <c r="D12">
-        <v>0.05019192888180868</v>
+        <v>0.02931683950457398</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.966950957744302</v>
+        <v>4.354458169223534</v>
       </c>
       <c r="G12">
-        <v>0.002564210540529839</v>
+        <v>0.0008152170665842728</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.17876112527108</v>
+        <v>2.401466375872232</v>
       </c>
       <c r="J12">
-        <v>0.3014530633421657</v>
+        <v>0.2987976074768284</v>
       </c>
       <c r="K12">
-        <v>0.801705881211177</v>
+        <v>1.643809797062232</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3802174333785047</v>
+        <v>0.5647310996732671</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5558243152576097</v>
+        <v>1.192948428940866</v>
       </c>
       <c r="C13">
-        <v>0.245929402141968</v>
+        <v>0.4542044624137418</v>
       </c>
       <c r="D13">
-        <v>0.05020227032292013</v>
+        <v>0.02914616097189082</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.962966378483117</v>
+        <v>4.337571206301646</v>
       </c>
       <c r="G13">
-        <v>0.002564438802481154</v>
+        <v>0.0008156491983362672</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.17663140131252</v>
+        <v>2.393004154283219</v>
       </c>
       <c r="J13">
-        <v>0.3012003874710842</v>
+        <v>0.2974978680890956</v>
       </c>
       <c r="K13">
-        <v>0.7996288854006934</v>
+        <v>1.634219869218555</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3795952629459336</v>
+        <v>0.561570170097724</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5508742677937732</v>
+        <v>1.170091880832672</v>
       </c>
       <c r="C14">
-        <v>0.2440803079091722</v>
+        <v>0.4457551382386669</v>
       </c>
       <c r="D14">
-        <v>0.05023722366693306</v>
+        <v>0.0285907815327775</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.950001453652362</v>
+        <v>4.282698154185596</v>
       </c>
       <c r="G14">
-        <v>0.002565186624490575</v>
+        <v>0.0008170601694765104</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.169698973877857</v>
+        <v>2.365507474732169</v>
       </c>
       <c r="J14">
-        <v>0.3003794959637816</v>
+        <v>0.2932748549101376</v>
       </c>
       <c r="K14">
-        <v>0.7928686527794753</v>
+        <v>1.603032583504074</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3775723579166836</v>
+        <v>0.551292753741123</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.54784968476676</v>
+        <v>1.156136282520038</v>
       </c>
       <c r="C15">
-        <v>0.2429504416552675</v>
+        <v>0.4406005938655824</v>
       </c>
       <c r="D15">
-        <v>0.05025957747771059</v>
+        <v>0.02825153419267679</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.942082837272068</v>
+        <v>4.249237165425427</v>
       </c>
       <c r="G15">
-        <v>0.002565647309736527</v>
+        <v>0.0008179257673682298</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.165462693442748</v>
+        <v>2.348740859866609</v>
       </c>
       <c r="J15">
-        <v>0.2998790879814095</v>
+        <v>0.2907000151792829</v>
       </c>
       <c r="K15">
-        <v>0.788738033136525</v>
+        <v>1.58399543105574</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3763379783684968</v>
+        <v>0.5450209698515991</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5306313731281875</v>
+        <v>1.076811398205535</v>
       </c>
       <c r="C16">
-        <v>0.2365178106769008</v>
+        <v>0.4113659380079753</v>
       </c>
       <c r="D16">
-        <v>0.05040216693272725</v>
+        <v>0.02632124809345981</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.89705300988112</v>
+        <v>4.059686688851428</v>
       </c>
       <c r="G16">
-        <v>0.00256832758944725</v>
+        <v>0.0008229080562885849</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.141339707378506</v>
+        <v>2.253769173078609</v>
       </c>
       <c r="J16">
-        <v>0.2970483923615888</v>
+        <v>0.2761186323538851</v>
       </c>
       <c r="K16">
-        <v>0.7652235907019644</v>
+        <v>1.47585944228004</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3693363854114722</v>
+        <v>0.5094214737159533</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5201704798021183</v>
+        <v>1.028689562747758</v>
       </c>
       <c r="C17">
-        <v>0.2326091401508563</v>
+        <v>0.3936853765699766</v>
       </c>
       <c r="D17">
-        <v>0.05050259332389828</v>
+        <v>0.0251487855895931</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.869739146636533</v>
+        <v>3.945259414572661</v>
       </c>
       <c r="G17">
-        <v>0.002570007880349931</v>
+        <v>0.0008259855330954385</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.126677580176036</v>
+        <v>2.196443816819823</v>
       </c>
       <c r="J17">
-        <v>0.2953447871216213</v>
+        <v>0.2673202348952231</v>
       </c>
       <c r="K17">
-        <v>0.7509377056605047</v>
+        <v>1.410321450747972</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3651054761952821</v>
+        <v>0.4878687625606943</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5141911083198067</v>
+        <v>1.001195768173602</v>
       </c>
       <c r="C18">
-        <v>0.2303747351743084</v>
+        <v>0.3836027477170489</v>
       </c>
       <c r="D18">
-        <v>0.05056512535892921</v>
+        <v>0.02447848436556654</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.854142816823554</v>
+        <v>3.880084687572463</v>
       </c>
       <c r="G18">
-        <v>0.00257098761285443</v>
+        <v>0.000827763894386139</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.118294349155391</v>
+        <v>2.163795189165853</v>
       </c>
       <c r="J18">
-        <v>0.2943770110614139</v>
+        <v>0.2623103669678528</v>
       </c>
       <c r="K18">
-        <v>0.7427720339358359</v>
+        <v>1.37289873413593</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3626956035438766</v>
+        <v>0.475570486708456</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5121730273597223</v>
+        <v>0.9919172402371146</v>
       </c>
       <c r="C19">
-        <v>0.2296205636693003</v>
+        <v>0.3802032466829814</v>
       </c>
       <c r="D19">
-        <v>0.05058711768845114</v>
+        <v>0.02425220924427407</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.848881706287358</v>
+        <v>3.858123947171691</v>
       </c>
       <c r="G19">
-        <v>0.002571321616441372</v>
+        <v>0.000828367489512579</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.115464511532906</v>
+        <v>2.152794567884811</v>
       </c>
       <c r="J19">
-        <v>0.2940514146169022</v>
+        <v>0.260622532787977</v>
       </c>
       <c r="K19">
-        <v>0.7400160642895344</v>
+        <v>1.36027302250838</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3618837203145659</v>
+        <v>0.4714227432709848</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5212801825744577</v>
+        <v>1.033792793254747</v>
       </c>
       <c r="C20">
-        <v>0.2330237999761664</v>
+        <v>0.3955583793373592</v>
       </c>
       <c r="D20">
-        <v>0.05049140936084484</v>
+        <v>0.02527317005560548</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.872634962811361</v>
+        <v>3.957373168951477</v>
       </c>
       <c r="G20">
-        <v>0.002569827637820377</v>
+        <v>0.000825657085990501</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.12823320684609</v>
+        <v>2.202512271544379</v>
       </c>
       <c r="J20">
-        <v>0.2955248870251523</v>
+        <v>0.2682515177680784</v>
       </c>
       <c r="K20">
-        <v>0.7524531630306797</v>
+        <v>1.417269368009954</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3655534173951125</v>
+        <v>0.4901527615020811</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5523266611137103</v>
+        <v>1.176795999689205</v>
       </c>
       <c r="C21">
-        <v>0.2446228568682614</v>
+        <v>0.4482325111825958</v>
       </c>
       <c r="D21">
-        <v>0.05022676037148699</v>
+        <v>0.02875371290640771</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.95380481895603</v>
+        <v>4.298784115573966</v>
       </c>
       <c r="G21">
-        <v>0.002564966424735031</v>
+        <v>0.0008166454577323445</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.171733104500078</v>
+        <v>2.373567971434355</v>
       </c>
       <c r="J21">
-        <v>0.3006201090257292</v>
+        <v>0.2945127611422578</v>
       </c>
       <c r="K21">
-        <v>0.7948521671884805</v>
+        <v>1.612179169767785</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3781655529118524</v>
+        <v>0.5543065541157546</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5729513422332673</v>
+        <v>1.272217964866883</v>
       </c>
       <c r="C22">
-        <v>0.2523268238566061</v>
+        <v>0.4835759620548856</v>
       </c>
       <c r="D22">
-        <v>0.05009606807091416</v>
+        <v>0.03106981754220328</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.007872755525653</v>
+        <v>4.52853163737268</v>
       </c>
       <c r="G22">
-        <v>0.002561906820565693</v>
+        <v>0.0008108172306905055</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.200611406460723</v>
+        <v>2.488702438957887</v>
       </c>
       <c r="J22">
-        <v>0.3040580468916403</v>
+        <v>0.3121987931968704</v>
       </c>
       <c r="K22">
-        <v>0.8230195368580553</v>
+        <v>1.74245859326399</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3866190105111116</v>
+        <v>0.5972642543945952</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5619129762770285</v>
+        <v>1.22109362858194</v>
       </c>
       <c r="C23">
-        <v>0.2482037497987051</v>
+        <v>0.4646209850100149</v>
       </c>
       <c r="D23">
-        <v>0.05016196279397889</v>
+        <v>0.02982961940053031</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.978922239153604</v>
+        <v>4.405258759858867</v>
       </c>
       <c r="G23">
-        <v>0.002563529073973532</v>
+        <v>0.0008139228824311338</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.185157318645238</v>
+        <v>2.426923688512176</v>
       </c>
       <c r="J23">
-        <v>0.302213269000589</v>
+        <v>0.3027079227176444</v>
       </c>
       <c r="K23">
-        <v>0.8079441852052582</v>
+        <v>1.672637173645114</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3820879501964569</v>
+        <v>0.5742347422840979</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5207783777603083</v>
+        <v>1.031485090101768</v>
       </c>
       <c r="C24">
-        <v>0.2328362925892975</v>
+        <v>0.3947113404171887</v>
       </c>
       <c r="D24">
-        <v>0.05049645069085784</v>
+        <v>0.02521692417265342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.871325431772249</v>
+        <v>3.951894647052853</v>
       </c>
       <c r="G24">
-        <v>0.002569909082649377</v>
+        <v>0.0008258055485138901</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.127529764081871</v>
+        <v>2.199767767213629</v>
       </c>
       <c r="J24">
-        <v>0.2954434275763589</v>
+        <v>0.2678303346334019</v>
       </c>
       <c r="K24">
-        <v>0.7517678768952294</v>
+        <v>1.414127422333763</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3653508329937551</v>
+        <v>0.4891198785955737</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4778397281536968</v>
+        <v>0.8338747222006191</v>
       </c>
       <c r="C25">
-        <v>0.2167855129421525</v>
+        <v>0.3225539357027287</v>
       </c>
       <c r="D25">
-        <v>0.05103971610161295</v>
+        <v>0.02039451158776018</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.759615580763949</v>
+        <v>3.486950041154842</v>
       </c>
       <c r="G25">
-        <v>0.002577298875631157</v>
+        <v>0.0008389451428864422</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.067280069950442</v>
+        <v>1.966896023062645</v>
       </c>
       <c r="J25">
-        <v>0.2886032172902446</v>
+        <v>0.2321164708562407</v>
       </c>
       <c r="K25">
-        <v>0.6931288193439968</v>
+        <v>1.145509118248668</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3482005362370515</v>
+        <v>0.4009963580820681</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6928263173326741</v>
+        <v>0.9527821699358583</v>
       </c>
       <c r="C2">
-        <v>0.2715438366101353</v>
+        <v>0.2280412017726547</v>
       </c>
       <c r="D2">
-        <v>0.01695066494553643</v>
+        <v>0.2879646630215973</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.161042249944671</v>
+        <v>1.299129802579202</v>
       </c>
       <c r="G2">
-        <v>0.0008489561339329524</v>
+        <v>0.8427438425921565</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002046656936358415</v>
       </c>
       <c r="I2">
-        <v>1.80371789472909</v>
+        <v>0.00541857399685064</v>
       </c>
       <c r="J2">
-        <v>0.2071269948758925</v>
+        <v>0.6047074371501537</v>
       </c>
       <c r="K2">
-        <v>0.9543449127969268</v>
+        <v>0.5613406232164522</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.456662306419986</v>
       </c>
       <c r="M2">
-        <v>0.3385558213807229</v>
+        <v>1.145674472053486</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5993644583435582</v>
+        <v>0.8292355540033327</v>
       </c>
       <c r="C3">
-        <v>0.2380031891219971</v>
+        <v>0.1980890207038186</v>
       </c>
       <c r="D3">
-        <v>0.01467255261077227</v>
+        <v>0.251602919064581</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.948553942840675</v>
+        <v>1.220843452614474</v>
       </c>
       <c r="G3">
-        <v>0.0008559765609399725</v>
+        <v>0.800990182307487</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003777588779503738</v>
       </c>
       <c r="I3">
-        <v>1.697352818489946</v>
+        <v>0.007684972586663896</v>
       </c>
       <c r="J3">
-        <v>0.1908611139271628</v>
+        <v>0.5899010827964872</v>
       </c>
       <c r="K3">
-        <v>0.8279761253323557</v>
+        <v>0.5496992622472625</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3997598208459152</v>
       </c>
       <c r="M3">
-        <v>0.2974487866638071</v>
+        <v>0.9969317537408813</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5428375064226714</v>
+        <v>0.7532450459107736</v>
       </c>
       <c r="C4">
-        <v>0.2178311456322461</v>
+        <v>0.1799805741496527</v>
       </c>
       <c r="D4">
-        <v>0.01329812473422365</v>
+        <v>0.229417473559991</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.821669332928309</v>
+        <v>1.173122457718378</v>
       </c>
       <c r="G4">
-        <v>0.000860411237208713</v>
+        <v>0.7756627187768999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005152997644063073</v>
       </c>
       <c r="I4">
-        <v>1.633847544489242</v>
+        <v>0.009374520607875247</v>
       </c>
       <c r="J4">
-        <v>0.1811613257270324</v>
+        <v>0.5810334992023627</v>
       </c>
       <c r="K4">
-        <v>0.7516791820451658</v>
+        <v>0.5426521531065234</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3648732171992748</v>
       </c>
       <c r="M4">
-        <v>0.2727127853339226</v>
+        <v>0.9058161869385231</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5199925222932507</v>
+        <v>0.7219436432297073</v>
       </c>
       <c r="C5">
-        <v>0.2097053964384514</v>
+        <v>0.1731408570555573</v>
       </c>
       <c r="D5">
-        <v>0.0127437280966447</v>
+        <v>0.2207001742032162</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.770789156034411</v>
+        <v>1.152352049593389</v>
       </c>
       <c r="G5">
-        <v>0.0008622506689162839</v>
+        <v>0.7641289073045812</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005791227133267407</v>
       </c>
       <c r="I5">
-        <v>1.608384042048442</v>
+        <v>0.01021972842202246</v>
       </c>
       <c r="J5">
-        <v>0.1772750649077537</v>
+        <v>0.5768100878438389</v>
       </c>
       <c r="K5">
-        <v>0.7208754444938847</v>
+        <v>0.5389163341868155</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3506522661293445</v>
       </c>
       <c r="M5">
-        <v>0.2627468069788002</v>
+        <v>0.8690931087237459</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5162098990011543</v>
+        <v>0.7163820105374441</v>
       </c>
       <c r="C6">
-        <v>0.208361507741003</v>
+        <v>0.1725912832391714</v>
       </c>
       <c r="D6">
-        <v>0.01265200296218083</v>
+        <v>0.2196122146744699</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.76238835735532</v>
+        <v>1.147195691513517</v>
       </c>
       <c r="G6">
-        <v>0.0008625580835452951</v>
+        <v>0.7606511592340013</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00590483606652481</v>
       </c>
       <c r="I6">
-        <v>1.604179873459856</v>
+        <v>0.01047564000428558</v>
       </c>
       <c r="J6">
-        <v>0.1766336071255452</v>
+        <v>0.5753025049491072</v>
       </c>
       <c r="K6">
-        <v>0.7157768498487656</v>
+        <v>0.5372149122265988</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.348277369895726</v>
       </c>
       <c r="M6">
-        <v>0.2610985075209911</v>
+        <v>0.8634453771838935</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5425286735867587</v>
+        <v>0.7518315457715801</v>
       </c>
       <c r="C7">
-        <v>0.217721190938704</v>
+        <v>0.1814810886334612</v>
       </c>
       <c r="D7">
-        <v>0.01329062543440784</v>
+        <v>0.2302788381562237</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.820979894539349</v>
+        <v>1.168165794700968</v>
       </c>
       <c r="G7">
-        <v>0.0008604359123096943</v>
+        <v>0.7712272454383964</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00516926507385751</v>
       </c>
       <c r="I7">
-        <v>1.633502501201789</v>
+        <v>0.009672185552755508</v>
       </c>
       <c r="J7">
-        <v>0.1811086524694829</v>
+        <v>0.5787677790459895</v>
       </c>
       <c r="K7">
-        <v>0.7512626340268866</v>
+        <v>0.5396460917204919</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3646435791932845</v>
       </c>
       <c r="M7">
-        <v>0.2725779344562866</v>
+        <v>0.906546341249026</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6604062388856562</v>
+        <v>0.9088773859047876</v>
       </c>
       <c r="C8">
-        <v>0.2598841575408244</v>
+        <v>0.2197752322733777</v>
       </c>
       <c r="D8">
-        <v>0.01615985179531165</v>
+        <v>0.2767013526663646</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.086985611465153</v>
+        <v>1.265872504996693</v>
       </c>
       <c r="G8">
-        <v>0.0008513516779078277</v>
+        <v>0.8226208783629119</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002583587062823245</v>
       </c>
       <c r="I8">
-        <v>1.766645182797404</v>
+        <v>0.006476205093598253</v>
       </c>
       <c r="J8">
-        <v>0.2014552053704648</v>
+        <v>0.5966444728882436</v>
       </c>
       <c r="K8">
-        <v>0.9104809135331209</v>
+        <v>0.5534070859646718</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4369765727759756</v>
       </c>
       <c r="M8">
-        <v>0.3242696754458336</v>
+        <v>1.09596769179538</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8996556516986232</v>
+        <v>1.217906166791607</v>
       </c>
       <c r="C9">
-        <v>0.3464890592497625</v>
+        <v>0.2945231399398267</v>
       </c>
       <c r="D9">
-        <v>0.02200079614654982</v>
+        <v>0.3672700941300207</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.640748375234097</v>
+        <v>1.469120075331205</v>
       </c>
       <c r="G9">
-        <v>0.0008344705067174702</v>
+        <v>0.9339118760917131</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001494156640196032</v>
       </c>
       <c r="I9">
-        <v>2.043917178987655</v>
+        <v>0.002304359502131703</v>
       </c>
       <c r="J9">
-        <v>0.243922997258565</v>
+        <v>0.6375779639693917</v>
       </c>
       <c r="K9">
-        <v>1.234830200870704</v>
+        <v>0.5865903747349179</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5795961929831179</v>
       </c>
       <c r="M9">
-        <v>0.4302559963397101</v>
+        <v>1.467495476336182</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.082328471880999</v>
+        <v>1.445415861783715</v>
       </c>
       <c r="C10">
-        <v>0.4133956366688949</v>
+        <v>0.3498798029676777</v>
       </c>
       <c r="D10">
-        <v>0.02645560212545917</v>
+        <v>0.4240220523403764</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.072833402343633</v>
+        <v>1.587973933519592</v>
       </c>
       <c r="G10">
-        <v>0.0008225579765950286</v>
+        <v>0.9970369960644234</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000348649690897318</v>
       </c>
       <c r="I10">
-        <v>2.260355700576682</v>
+        <v>0.001161380436016657</v>
       </c>
       <c r="J10">
-        <v>0.2771296946746844</v>
+        <v>0.6585248872464433</v>
       </c>
       <c r="K10">
-        <v>1.48337626838736</v>
+        <v>0.600166774169395</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.65278557739326</v>
       </c>
       <c r="M10">
-        <v>0.5118946018056647</v>
+        <v>1.741163476489561</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.167420522703594</v>
+        <v>1.555893869287758</v>
       </c>
       <c r="C11">
-        <v>0.4447682053374535</v>
+        <v>0.3577515783844092</v>
       </c>
       <c r="D11">
-        <v>0.02852585187890355</v>
+        <v>0.3572467884607988</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.27629055934591</v>
+        <v>1.377276597072608</v>
       </c>
       <c r="G11">
-        <v>0.00081722561774078</v>
+        <v>0.8624373794207116</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01885359344222692</v>
       </c>
       <c r="I11">
-        <v>2.362296727431655</v>
+        <v>0.001539528261058187</v>
       </c>
       <c r="J11">
-        <v>0.2927817690687959</v>
+        <v>0.5857088135596626</v>
       </c>
       <c r="K11">
-        <v>1.59938822964105</v>
+        <v>0.518704731821451</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4344392955437542</v>
       </c>
       <c r="M11">
-        <v>0.5500920218401859</v>
+        <v>1.849032417079258</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.199975218448174</v>
+        <v>1.603197305342889</v>
       </c>
       <c r="C12">
-        <v>0.4568038214501939</v>
+        <v>0.3498825268034409</v>
       </c>
       <c r="D12">
-        <v>0.02931683950457398</v>
+        <v>0.2931011165753432</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.354458169223534</v>
+        <v>1.194145356251695</v>
       </c>
       <c r="G12">
-        <v>0.0008152170665842728</v>
+        <v>0.7496299546202323</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05744920437589229</v>
       </c>
       <c r="I12">
-        <v>2.401466375872232</v>
+        <v>0.001523600117265822</v>
       </c>
       <c r="J12">
-        <v>0.2987976074768284</v>
+        <v>0.5266609615233762</v>
       </c>
       <c r="K12">
-        <v>1.643809797062232</v>
+        <v>0.4567499302636122</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2751549059163665</v>
       </c>
       <c r="M12">
-        <v>0.5647310996732671</v>
+        <v>1.879804630036602</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.192948428940866</v>
+        <v>1.602552845117742</v>
       </c>
       <c r="C13">
-        <v>0.4542044624137418</v>
+        <v>0.332046756946454</v>
       </c>
       <c r="D13">
-        <v>0.02914616097189082</v>
+        <v>0.2292366600993887</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.337571206301646</v>
+        <v>1.014811399131091</v>
       </c>
       <c r="G13">
-        <v>0.0008156491983362672</v>
+        <v>0.6404349844234787</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131476634440531</v>
       </c>
       <c r="I13">
-        <v>2.393004154283219</v>
+        <v>0.001558590812191341</v>
       </c>
       <c r="J13">
-        <v>0.2974978680890956</v>
+        <v>0.4713060358073449</v>
       </c>
       <c r="K13">
-        <v>1.634219869218555</v>
+        <v>0.4015184823896085</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1526183804075885</v>
       </c>
       <c r="M13">
-        <v>0.561570170097724</v>
+        <v>1.854662727528421</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.170091880832672</v>
+        <v>1.580076181581148</v>
       </c>
       <c r="C14">
-        <v>0.4457551382386669</v>
+        <v>0.3156588694539835</v>
       </c>
       <c r="D14">
-        <v>0.0285907815327775</v>
+        <v>0.1860836287339112</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.282698154185596</v>
+        <v>0.8926802999924064</v>
       </c>
       <c r="G14">
-        <v>0.0008170601694765104</v>
+        <v>0.566257505099955</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625111940778368</v>
       </c>
       <c r="I14">
-        <v>2.365507474732169</v>
+        <v>0.001721106825838703</v>
       </c>
       <c r="J14">
-        <v>0.2932748549101376</v>
+        <v>0.4344485984776725</v>
       </c>
       <c r="K14">
-        <v>1.603032583504074</v>
+        <v>0.3661713576999475</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08950017148172407</v>
       </c>
       <c r="M14">
-        <v>0.551292753741123</v>
+        <v>1.812253072892361</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.156136282520038</v>
+        <v>1.563862827145442</v>
       </c>
       <c r="C15">
-        <v>0.4406005938655824</v>
+        <v>0.3102128225751244</v>
       </c>
       <c r="D15">
-        <v>0.02825153419267679</v>
+        <v>0.1752528320430997</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.249237165425427</v>
+        <v>0.8611306494957631</v>
       </c>
       <c r="G15">
-        <v>0.0008179257673682298</v>
+        <v>0.5469778996299937</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750398589124984</v>
       </c>
       <c r="I15">
-        <v>2.348740859866609</v>
+        <v>0.001910704662086538</v>
       </c>
       <c r="J15">
-        <v>0.2907000151792829</v>
+        <v>0.4252715065120327</v>
       </c>
       <c r="K15">
-        <v>1.58399543105574</v>
+        <v>0.3576574182304419</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07687708016860384</v>
       </c>
       <c r="M15">
-        <v>0.5450209698515991</v>
+        <v>1.790600376597553</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.076811398205535</v>
+        <v>1.464857526265007</v>
       </c>
       <c r="C16">
-        <v>0.4113659380079753</v>
+        <v>0.2913219283399258</v>
       </c>
       <c r="D16">
-        <v>0.02632124809345981</v>
+        <v>0.1663528235348792</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.059686688851428</v>
+        <v>0.8475013990255178</v>
       </c>
       <c r="G16">
-        <v>0.0008229080562885849</v>
+        <v>0.5412068829556063</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624453438426769</v>
       </c>
       <c r="I16">
-        <v>2.253769173078609</v>
+        <v>0.002447950688245548</v>
       </c>
       <c r="J16">
-        <v>0.2761186323538851</v>
+        <v>0.4267572357672833</v>
       </c>
       <c r="K16">
-        <v>1.47585944228004</v>
+        <v>0.3618869342728814</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07485923293859642</v>
       </c>
       <c r="M16">
-        <v>0.5094214737159533</v>
+        <v>1.678730393095805</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.028689562747758</v>
+        <v>1.401026933887039</v>
       </c>
       <c r="C17">
-        <v>0.3936853765699766</v>
+        <v>0.2855878263269176</v>
       </c>
       <c r="D17">
-        <v>0.0251487855895931</v>
+        <v>0.1816361169750138</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.945259414572661</v>
+        <v>0.9000453221145506</v>
       </c>
       <c r="G17">
-        <v>0.0008259855330954385</v>
+        <v>0.5751286978504311</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247605991354988</v>
       </c>
       <c r="I17">
-        <v>2.196443816819823</v>
+        <v>0.002826698933403371</v>
       </c>
       <c r="J17">
-        <v>0.2673202348952231</v>
+        <v>0.4470428259063084</v>
       </c>
       <c r="K17">
-        <v>1.410321450747972</v>
+        <v>0.3832954892261284</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1024616883407674</v>
       </c>
       <c r="M17">
-        <v>0.4878687625606943</v>
+        <v>1.615678305505924</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.001195768173602</v>
+        <v>1.361065523279819</v>
       </c>
       <c r="C18">
-        <v>0.3836027477170489</v>
+        <v>0.289127529967601</v>
       </c>
       <c r="D18">
-        <v>0.02447848436556654</v>
+        <v>0.2219259616989575</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.880084687572463</v>
+        <v>1.02524348534601</v>
       </c>
       <c r="G18">
-        <v>0.000827763894386139</v>
+        <v>0.6537756572490423</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07187949660441006</v>
       </c>
       <c r="I18">
-        <v>2.163795189165853</v>
+        <v>0.002699327755973258</v>
       </c>
       <c r="J18">
-        <v>0.2623103669678528</v>
+        <v>0.4890797855224776</v>
       </c>
       <c r="K18">
-        <v>1.37289873413593</v>
+        <v>0.4263446442687417</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1786918365563395</v>
       </c>
       <c r="M18">
-        <v>0.475570486708456</v>
+        <v>1.585992670600689</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9919172402371146</v>
+        <v>1.341337953795744</v>
       </c>
       <c r="C19">
-        <v>0.3802032466829814</v>
+        <v>0.3029590688858832</v>
       </c>
       <c r="D19">
-        <v>0.02425220924427407</v>
+        <v>0.2858457956275799</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.858123947171691</v>
+        <v>1.204402894782447</v>
       </c>
       <c r="G19">
-        <v>0.000828367489512579</v>
+        <v>0.7632739164519506</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0264342401772808</v>
       </c>
       <c r="I19">
-        <v>2.152794567884811</v>
+        <v>0.002701435568669197</v>
       </c>
       <c r="J19">
-        <v>0.260622532787977</v>
+        <v>0.545507876124887</v>
       </c>
       <c r="K19">
-        <v>1.36027302250838</v>
+        <v>0.4839821777322513</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3191197322293675</v>
       </c>
       <c r="M19">
-        <v>0.4714227432709848</v>
+        <v>1.587587870286939</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.033792793254747</v>
+        <v>1.382470820024821</v>
       </c>
       <c r="C20">
-        <v>0.3955583793373592</v>
+        <v>0.3402172297667789</v>
       </c>
       <c r="D20">
-        <v>0.02527317005560548</v>
+        <v>0.4116959567604965</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.957373168951477</v>
+        <v>1.540850422264768</v>
       </c>
       <c r="G20">
-        <v>0.000825657085990501</v>
+        <v>0.9663450729567415</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001543544331514823</v>
       </c>
       <c r="I20">
-        <v>2.202512271544379</v>
+        <v>0.002155249119903502</v>
       </c>
       <c r="J20">
-        <v>0.2682515177680784</v>
+        <v>0.645797227871526</v>
       </c>
       <c r="K20">
-        <v>1.417269368009954</v>
+        <v>0.5871337368072602</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6320393245542704</v>
       </c>
       <c r="M20">
-        <v>0.4901527615020811</v>
+        <v>1.672932109679152</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.176795999689205</v>
+        <v>1.556383562394473</v>
       </c>
       <c r="C21">
-        <v>0.4482325111825958</v>
+        <v>0.3859912908486081</v>
       </c>
       <c r="D21">
-        <v>0.02875371290640771</v>
+        <v>0.4725755987995228</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.298784115573966</v>
+        <v>1.684060343656498</v>
       </c>
       <c r="G21">
-        <v>0.0008166454577323445</v>
+        <v>1.047702914460743</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0007569693443869596</v>
       </c>
       <c r="I21">
-        <v>2.373567971434355</v>
+        <v>0.00168620139760467</v>
       </c>
       <c r="J21">
-        <v>0.2945127611422578</v>
+        <v>0.6785508745582263</v>
       </c>
       <c r="K21">
-        <v>1.612179169767785</v>
+        <v>0.6154513555137342</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7387589908639711</v>
       </c>
       <c r="M21">
-        <v>0.5543065541157546</v>
+        <v>1.886460674475671</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.272217964866883</v>
+        <v>1.672053698149966</v>
       </c>
       <c r="C22">
-        <v>0.4835759620548856</v>
+        <v>0.4130773078455832</v>
       </c>
       <c r="D22">
-        <v>0.03106981754220328</v>
+        <v>0.5055478459198639</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.52853163737268</v>
+        <v>1.768778416758408</v>
       </c>
       <c r="G22">
-        <v>0.0008108172306905055</v>
+        <v>1.09743913902436</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001634322915425201</v>
       </c>
       <c r="I22">
-        <v>2.488702438957887</v>
+        <v>0.00147399194658604</v>
       </c>
       <c r="J22">
-        <v>0.3121987931968704</v>
+        <v>0.6982921415767436</v>
       </c>
       <c r="K22">
-        <v>1.74245859326399</v>
+        <v>0.6327907337372665</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7923664953648597</v>
       </c>
       <c r="M22">
-        <v>0.5972642543945952</v>
+        <v>2.024004581161535</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.22109362858194</v>
+        <v>1.611530108495344</v>
       </c>
       <c r="C23">
-        <v>0.4646209850100149</v>
+        <v>0.3966251905118554</v>
       </c>
       <c r="D23">
-        <v>0.02982961940053031</v>
+        <v>0.4867275775414726</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.405258759858867</v>
+        <v>1.728977199035782</v>
       </c>
       <c r="G23">
-        <v>0.0008139228824311338</v>
+        <v>1.075829632928404</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001129750745890723</v>
       </c>
       <c r="I23">
-        <v>2.426923688512176</v>
+        <v>0.001243562729477787</v>
       </c>
       <c r="J23">
-        <v>0.3027079227176444</v>
+        <v>0.6902694086049621</v>
       </c>
       <c r="K23">
-        <v>1.672637173645114</v>
+        <v>0.6269254709943581</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7637755524800411</v>
       </c>
       <c r="M23">
-        <v>0.5742347422840979</v>
+        <v>1.949048339020209</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.031485090101768</v>
+        <v>1.380753396499671</v>
       </c>
       <c r="C24">
-        <v>0.3947113404171887</v>
+        <v>0.3383454521586486</v>
       </c>
       <c r="D24">
-        <v>0.02521692417265342</v>
+        <v>0.417879363269094</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.951894647052853</v>
+        <v>1.571339739483307</v>
       </c>
       <c r="G24">
-        <v>0.0008258055485138901</v>
+        <v>0.9875649190868785</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.180182014674628E-05</v>
       </c>
       <c r="I24">
-        <v>2.199767767213629</v>
+        <v>0.001640197082194206</v>
       </c>
       <c r="J24">
-        <v>0.2678303346334019</v>
+        <v>0.6566751963402169</v>
       </c>
       <c r="K24">
-        <v>1.414127422333763</v>
+        <v>0.5998803729594613</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6560295507948268</v>
       </c>
       <c r="M24">
-        <v>0.4891198785955737</v>
+        <v>1.668910856766615</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8338747222006191</v>
+        <v>1.132491687504626</v>
       </c>
       <c r="C25">
-        <v>0.3225539357027287</v>
+        <v>0.2769270624926605</v>
       </c>
       <c r="D25">
-        <v>0.02039451158776018</v>
+        <v>0.3444062036201672</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.486950041154842</v>
+        <v>1.405270765308885</v>
       </c>
       <c r="G25">
-        <v>0.0008389451428864422</v>
+        <v>0.8957386998065431</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005047661507706636</v>
       </c>
       <c r="I25">
-        <v>1.966896023062645</v>
+        <v>0.003604181167303544</v>
       </c>
       <c r="J25">
-        <v>0.2321164708562407</v>
+        <v>0.6223253748797077</v>
       </c>
       <c r="K25">
-        <v>1.145509118248668</v>
+        <v>0.5722121786157004</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5408219806486869</v>
       </c>
       <c r="M25">
-        <v>0.4009963580820681</v>
+        <v>1.368898695933893</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9527821699358583</v>
+        <v>0.9353205239495423</v>
       </c>
       <c r="C2">
-        <v>0.2280412017726547</v>
+        <v>0.2671146796038784</v>
       </c>
       <c r="D2">
-        <v>0.2879646630215973</v>
+        <v>0.3171753504417154</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.299129802579202</v>
+        <v>1.161900857218427</v>
       </c>
       <c r="G2">
-        <v>0.8427438425921565</v>
+        <v>0.702362070928217</v>
       </c>
       <c r="H2">
-        <v>0.002046656936358415</v>
+        <v>0.001624973729842605</v>
       </c>
       <c r="I2">
-        <v>0.00541857399685064</v>
+        <v>0.003623866328122283</v>
       </c>
       <c r="J2">
-        <v>0.6047074371501537</v>
+        <v>0.5531961969375914</v>
       </c>
       <c r="K2">
-        <v>0.5613406232164522</v>
+        <v>0.4622969985772762</v>
       </c>
       <c r="L2">
-        <v>0.456662306419986</v>
+        <v>0.2106476019472794</v>
       </c>
       <c r="M2">
-        <v>1.145674472053486</v>
+        <v>0.1402759618255267</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4603957424049696</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.183418731745689</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8292355540033327</v>
+        <v>0.8164846337553797</v>
       </c>
       <c r="C3">
-        <v>0.1980890207038186</v>
+        <v>0.2294066085023019</v>
       </c>
       <c r="D3">
-        <v>0.251602919064581</v>
+        <v>0.2761530672355264</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.220843452614474</v>
+        <v>1.101416667746108</v>
       </c>
       <c r="G3">
-        <v>0.800990182307487</v>
+        <v>0.6784662867910498</v>
       </c>
       <c r="H3">
-        <v>0.003777588779503738</v>
+        <v>0.003104339106929865</v>
       </c>
       <c r="I3">
-        <v>0.007684972586663896</v>
+        <v>0.005178077560216376</v>
       </c>
       <c r="J3">
-        <v>0.5899010827964872</v>
+        <v>0.5412421731279551</v>
       </c>
       <c r="K3">
-        <v>0.5496992622472625</v>
+        <v>0.4597983905174061</v>
       </c>
       <c r="L3">
-        <v>0.3997598208459152</v>
+        <v>0.2142857899122994</v>
       </c>
       <c r="M3">
-        <v>0.9969317537408813</v>
+        <v>0.1361368365431375</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.403891318238081</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.028676925696089</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7532450459107736</v>
+        <v>0.7432693439486684</v>
       </c>
       <c r="C4">
-        <v>0.1799805741496527</v>
+        <v>0.2066647772900154</v>
       </c>
       <c r="D4">
-        <v>0.229417473559991</v>
+        <v>0.2511541893857299</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.173122457718378</v>
+        <v>1.064422312184035</v>
       </c>
       <c r="G4">
-        <v>0.7756627187768999</v>
+        <v>0.6641074451896287</v>
       </c>
       <c r="H4">
-        <v>0.005152997644063073</v>
+        <v>0.004293662900336837</v>
       </c>
       <c r="I4">
-        <v>0.009374520607875247</v>
+        <v>0.006367317919886872</v>
       </c>
       <c r="J4">
-        <v>0.5810334992023627</v>
+        <v>0.5338398306194421</v>
       </c>
       <c r="K4">
-        <v>0.5426521531065234</v>
+        <v>0.4582748066691664</v>
       </c>
       <c r="L4">
-        <v>0.3648732171992748</v>
+        <v>0.2164597790118954</v>
       </c>
       <c r="M4">
-        <v>0.9058161869385231</v>
+        <v>0.1341821467750535</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3692228753130991</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9338614854167986</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7219436432297073</v>
+        <v>0.7130950637109663</v>
       </c>
       <c r="C5">
-        <v>0.1731408570555573</v>
+        <v>0.1979730156902093</v>
       </c>
       <c r="D5">
-        <v>0.2207001742032162</v>
+        <v>0.241290555872979</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.152352049593389</v>
+        <v>1.048157130567127</v>
       </c>
       <c r="G5">
-        <v>0.7641289073045812</v>
+        <v>0.657253026778676</v>
       </c>
       <c r="H5">
-        <v>0.005791227133267407</v>
+        <v>0.004848054714887917</v>
       </c>
       <c r="I5">
-        <v>0.01021972842202246</v>
+        <v>0.007003903719051685</v>
       </c>
       <c r="J5">
-        <v>0.5768100878438389</v>
+        <v>0.5302299960239623</v>
       </c>
       <c r="K5">
-        <v>0.5389163341868155</v>
+        <v>0.4569385657966372</v>
       </c>
       <c r="L5">
-        <v>0.3506522661293445</v>
+        <v>0.2169982927048792</v>
       </c>
       <c r="M5">
-        <v>0.8690931087237459</v>
+        <v>0.1333267360959027</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3550857948010275</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8956043633827449</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7163820105374441</v>
+        <v>0.7077482205123999</v>
       </c>
       <c r="C6">
-        <v>0.1725912832391714</v>
+        <v>0.197123164027289</v>
       </c>
       <c r="D6">
-        <v>0.2196122146744699</v>
+        <v>0.2399983258695784</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.147195691513517</v>
+        <v>1.043970393203253</v>
       </c>
       <c r="G6">
-        <v>0.7606511592340013</v>
+        <v>0.6548083614706712</v>
       </c>
       <c r="H6">
-        <v>0.00590483606652481</v>
+        <v>0.00494672442525379</v>
       </c>
       <c r="I6">
-        <v>0.01047564000428558</v>
+        <v>0.007238447170774265</v>
       </c>
       <c r="J6">
-        <v>0.5753025049491072</v>
+        <v>0.528925516508906</v>
       </c>
       <c r="K6">
-        <v>0.5372149122265988</v>
+        <v>0.4558432985879328</v>
       </c>
       <c r="L6">
-        <v>0.348277369895726</v>
+        <v>0.2166824012472794</v>
       </c>
       <c r="M6">
-        <v>0.8634453771838935</v>
+        <v>0.1329426256480168</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3527254728668652</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8896723731663769</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7518315457715801</v>
+        <v>0.7421769630235531</v>
       </c>
       <c r="C7">
-        <v>0.1814810886334612</v>
+        <v>0.2076914278241446</v>
       </c>
       <c r="D7">
-        <v>0.2302788381562237</v>
+        <v>0.2525267656211128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.168165794700968</v>
+        <v>1.057726368803337</v>
       </c>
       <c r="G7">
-        <v>0.7712272454383964</v>
+        <v>0.6629256095389024</v>
       </c>
       <c r="H7">
-        <v>0.00516926507385751</v>
+        <v>0.004312282784493138</v>
       </c>
       <c r="I7">
-        <v>0.009672185552755508</v>
+        <v>0.00670677479406212</v>
       </c>
       <c r="J7">
-        <v>0.5787677790459895</v>
+        <v>0.5258903867974851</v>
       </c>
       <c r="K7">
-        <v>0.5396460917204919</v>
+        <v>0.4548062555281582</v>
       </c>
       <c r="L7">
-        <v>0.3646435791932845</v>
+        <v>0.2149024539884437</v>
       </c>
       <c r="M7">
-        <v>0.906546341249026</v>
+        <v>0.1331456681928902</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3689707652874432</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9341234975341877</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9088773859047876</v>
+        <v>0.8939296970498276</v>
       </c>
       <c r="C8">
-        <v>0.2197752322733777</v>
+        <v>0.2546072289988501</v>
       </c>
       <c r="D8">
-        <v>0.2767013526663646</v>
+        <v>0.3061516933440487</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.265872504996693</v>
+        <v>1.12769061124709</v>
       </c>
       <c r="G8">
-        <v>0.8226208783629119</v>
+        <v>0.6976962325503564</v>
       </c>
       <c r="H8">
-        <v>0.002583587062823245</v>
+        <v>0.002091103180460907</v>
       </c>
       <c r="I8">
-        <v>0.006476205093598253</v>
+        <v>0.004515944451420673</v>
       </c>
       <c r="J8">
-        <v>0.5966444728882436</v>
+        <v>0.5270613433093416</v>
       </c>
       <c r="K8">
-        <v>0.5534070859646718</v>
+        <v>0.4548480319160326</v>
       </c>
       <c r="L8">
-        <v>0.4369765727759756</v>
+        <v>0.2091297187413659</v>
       </c>
       <c r="M8">
-        <v>1.09596769179538</v>
+        <v>0.1365688551608102</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4407705244813371</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.130303701028481</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.217906166791607</v>
+        <v>1.190589007550187</v>
       </c>
       <c r="C9">
-        <v>0.2945231399398267</v>
+        <v>0.3489507237351006</v>
       </c>
       <c r="D9">
-        <v>0.3672700941300207</v>
+        <v>0.4092294853061844</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.469120075331205</v>
+        <v>1.282421816809048</v>
       </c>
       <c r="G9">
-        <v>0.9339118760917131</v>
+        <v>0.7660458584088303</v>
       </c>
       <c r="H9">
-        <v>0.0001494156640196032</v>
+        <v>8.334340903637383E-05</v>
       </c>
       <c r="I9">
-        <v>0.002304359502131703</v>
+        <v>0.001685566381467218</v>
       </c>
       <c r="J9">
-        <v>0.6375779639693917</v>
+        <v>0.5535429244500563</v>
       </c>
       <c r="K9">
-        <v>0.5865903747349179</v>
+        <v>0.463158554448345</v>
       </c>
       <c r="L9">
-        <v>0.5795961929831179</v>
+        <v>0.2008434687733462</v>
       </c>
       <c r="M9">
-        <v>1.467495476336182</v>
+        <v>0.1505457860287684</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5821862302602483</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.516336361868952</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.445415861783715</v>
+        <v>1.410244597903556</v>
       </c>
       <c r="C10">
-        <v>0.3498798029676777</v>
+        <v>0.4152339668628713</v>
       </c>
       <c r="D10">
-        <v>0.4240220523403764</v>
+        <v>0.4775622224602216</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.587973933519592</v>
+        <v>1.356112117946438</v>
       </c>
       <c r="G10">
-        <v>0.9970369960644234</v>
+        <v>0.8173719524882443</v>
       </c>
       <c r="H10">
-        <v>0.000348649690897318</v>
+        <v>0.0003900605549849168</v>
       </c>
       <c r="I10">
-        <v>0.001161380436016657</v>
+        <v>0.001161221480552754</v>
       </c>
       <c r="J10">
-        <v>0.6585248872464433</v>
+        <v>0.5324868912220495</v>
       </c>
       <c r="K10">
-        <v>0.600166774169395</v>
+        <v>0.4557331447077431</v>
       </c>
       <c r="L10">
-        <v>0.65278557739326</v>
+        <v>0.1896266836143781</v>
       </c>
       <c r="M10">
-        <v>1.741163476489561</v>
+        <v>0.1582849042401868</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6541507219794482</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.797319590978447</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.555893869287758</v>
+        <v>1.524812957293278</v>
       </c>
       <c r="C11">
-        <v>0.3577515783844092</v>
+        <v>0.4122685873059879</v>
       </c>
       <c r="D11">
-        <v>0.3572467884607988</v>
+        <v>0.4103448251470354</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.377276597072608</v>
+        <v>1.148985576193496</v>
       </c>
       <c r="G11">
-        <v>0.8624373794207116</v>
+        <v>0.7374576559253399</v>
       </c>
       <c r="H11">
-        <v>0.01885359344222692</v>
+        <v>0.01887385459145818</v>
       </c>
       <c r="I11">
-        <v>0.001539528261058187</v>
+        <v>0.001749590651187738</v>
       </c>
       <c r="J11">
-        <v>0.5857088135596626</v>
+        <v>0.4203120173160357</v>
       </c>
       <c r="K11">
-        <v>0.518704731821451</v>
+        <v>0.3848682618488439</v>
       </c>
       <c r="L11">
-        <v>0.4344392955437542</v>
+        <v>0.1615182130768602</v>
       </c>
       <c r="M11">
-        <v>1.849032417079258</v>
+        <v>0.1344974929288973</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4351906323594648</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.897579532861187</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.603197305342889</v>
+        <v>1.576531199862586</v>
       </c>
       <c r="C12">
-        <v>0.3498825268034409</v>
+        <v>0.3948125108117893</v>
       </c>
       <c r="D12">
-        <v>0.2931011165753432</v>
+        <v>0.3411475209758237</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.194145356251695</v>
+        <v>0.9860507644528553</v>
       </c>
       <c r="G12">
-        <v>0.7496299546202323</v>
+        <v>0.6586365930170217</v>
       </c>
       <c r="H12">
-        <v>0.05744920437589229</v>
+        <v>0.05745941195495874</v>
       </c>
       <c r="I12">
-        <v>0.001523600117265822</v>
+        <v>0.001745132892958523</v>
       </c>
       <c r="J12">
-        <v>0.5266609615233762</v>
+        <v>0.3614577252084246</v>
       </c>
       <c r="K12">
-        <v>0.4567499302636122</v>
+        <v>0.338384145955871</v>
       </c>
       <c r="L12">
-        <v>0.2751549059163665</v>
+        <v>0.1448048048127681</v>
       </c>
       <c r="M12">
-        <v>1.879804630036602</v>
+        <v>0.1168150455602373</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2757559606669133</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.921726388257269</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.602552845117742</v>
+        <v>1.580224139342022</v>
       </c>
       <c r="C13">
-        <v>0.332046756946454</v>
+        <v>0.3690331043447941</v>
       </c>
       <c r="D13">
-        <v>0.2292366600993887</v>
+        <v>0.2679506197602137</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.014811399131091</v>
+        <v>0.843496007510808</v>
       </c>
       <c r="G13">
-        <v>0.6404349844234787</v>
+        <v>0.566672638065171</v>
       </c>
       <c r="H13">
-        <v>0.1131476634440531</v>
+        <v>0.1131457936725155</v>
       </c>
       <c r="I13">
-        <v>0.001558590812191341</v>
+        <v>0.001720978367854897</v>
       </c>
       <c r="J13">
-        <v>0.4713060358073449</v>
+        <v>0.3356501123345197</v>
       </c>
       <c r="K13">
-        <v>0.4015184823896085</v>
+        <v>0.3045107493647983</v>
       </c>
       <c r="L13">
-        <v>0.1526183804075885</v>
+        <v>0.1337804944523739</v>
       </c>
       <c r="M13">
-        <v>1.854662727528421</v>
+        <v>0.1021712615192847</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1533474036968272</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.891321715131539</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.580076181581148</v>
+        <v>1.560759461060826</v>
       </c>
       <c r="C14">
-        <v>0.3156588694539835</v>
+        <v>0.3477520962925382</v>
       </c>
       <c r="D14">
-        <v>0.1860836287339112</v>
+        <v>0.2170305981987326</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8926802999924064</v>
+        <v>0.7522596983064886</v>
       </c>
       <c r="G14">
-        <v>0.566257505099955</v>
+        <v>0.4986183422989967</v>
       </c>
       <c r="H14">
-        <v>0.1625111940778368</v>
+        <v>0.1624912702431374</v>
       </c>
       <c r="I14">
-        <v>0.001721106825838703</v>
+        <v>0.00181503325053356</v>
       </c>
       <c r="J14">
-        <v>0.4344485984776725</v>
+        <v>0.328471183843881</v>
       </c>
       <c r="K14">
-        <v>0.3661713576999475</v>
+        <v>0.2856676799693609</v>
       </c>
       <c r="L14">
-        <v>0.08950017148172407</v>
+        <v>0.1280837209722669</v>
       </c>
       <c r="M14">
-        <v>1.812253072892361</v>
+        <v>0.09323425901054705</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09039203078583569</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.845766341987172</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.563862827145442</v>
+        <v>1.545303464927883</v>
       </c>
       <c r="C15">
-        <v>0.3102128225751244</v>
+        <v>0.3413193483740997</v>
       </c>
       <c r="D15">
-        <v>0.1752528320430997</v>
+        <v>0.2036976028829116</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8611306494957631</v>
+        <v>0.7309258316327316</v>
       </c>
       <c r="G15">
-        <v>0.5469778996299937</v>
+        <v>0.4789940338094709</v>
       </c>
       <c r="H15">
-        <v>0.1750398589124984</v>
+        <v>0.1750097837500988</v>
       </c>
       <c r="I15">
-        <v>0.001910704662086538</v>
+        <v>0.001987549858972315</v>
       </c>
       <c r="J15">
-        <v>0.4252715065120327</v>
+        <v>0.3306710873387715</v>
       </c>
       <c r="K15">
-        <v>0.3576574182304419</v>
+        <v>0.2822245166857158</v>
       </c>
       <c r="L15">
-        <v>0.07687708016860384</v>
+        <v>0.1272244436741712</v>
       </c>
       <c r="M15">
-        <v>1.790600376597553</v>
+        <v>0.09124264335423504</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07785034208133723</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.823546352063715</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.464857526265007</v>
+        <v>1.44653344016686</v>
       </c>
       <c r="C16">
-        <v>0.2913219283399258</v>
+        <v>0.3237226419275032</v>
       </c>
       <c r="D16">
-        <v>0.1663528235348792</v>
+        <v>0.1889342637520883</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8475013990255178</v>
+        <v>0.7411590994132737</v>
       </c>
       <c r="G16">
-        <v>0.5412068829556063</v>
+        <v>0.4580501387123803</v>
       </c>
       <c r="H16">
-        <v>0.1624453438426769</v>
+        <v>0.1623512598149119</v>
       </c>
       <c r="I16">
-        <v>0.002447950688245548</v>
+        <v>0.002320816225366507</v>
       </c>
       <c r="J16">
-        <v>0.4267572357672833</v>
+        <v>0.3703072168963075</v>
       </c>
       <c r="K16">
-        <v>0.3618869342728814</v>
+        <v>0.2953950031993315</v>
       </c>
       <c r="L16">
-        <v>0.07485923293859642</v>
+        <v>0.1332585532000756</v>
       </c>
       <c r="M16">
-        <v>1.678730393095805</v>
+        <v>0.09380059999602608</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07626661150404956</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.713314394261062</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.401026933887039</v>
+        <v>1.381705925853367</v>
       </c>
       <c r="C17">
-        <v>0.2855878263269176</v>
+        <v>0.320895240720489</v>
       </c>
       <c r="D17">
-        <v>0.1816361169750138</v>
+        <v>0.2038362175317872</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9000453221145506</v>
+        <v>0.7954066279124135</v>
       </c>
       <c r="G17">
-        <v>0.5751286978504311</v>
+        <v>0.478839975789711</v>
       </c>
       <c r="H17">
-        <v>0.1247605991354988</v>
+        <v>0.124625598618195</v>
       </c>
       <c r="I17">
-        <v>0.002826698933403371</v>
+        <v>0.002574378072021766</v>
       </c>
       <c r="J17">
-        <v>0.4470428259063084</v>
+        <v>0.404008150682202</v>
       </c>
       <c r="K17">
-        <v>0.3832954892261284</v>
+        <v>0.3151849947160308</v>
       </c>
       <c r="L17">
-        <v>0.1024616883407674</v>
+        <v>0.1412783150580541</v>
       </c>
       <c r="M17">
-        <v>1.615678305505924</v>
+        <v>0.09999970598352448</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.104149779964672</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.652525524702213</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.361065523279819</v>
+        <v>1.339030562989763</v>
       </c>
       <c r="C18">
-        <v>0.289127529967601</v>
+        <v>0.3301725906068498</v>
       </c>
       <c r="D18">
-        <v>0.2219259616989575</v>
+        <v>0.247667626029525</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.02524348534601</v>
+        <v>0.9059563242837143</v>
       </c>
       <c r="G18">
-        <v>0.6537756572490423</v>
+        <v>0.5380362967154184</v>
       </c>
       <c r="H18">
-        <v>0.07187949660441006</v>
+        <v>0.07174551263672413</v>
       </c>
       <c r="I18">
-        <v>0.002699327755973258</v>
+        <v>0.002361509273136164</v>
       </c>
       <c r="J18">
-        <v>0.4890797855224776</v>
+        <v>0.445301112694338</v>
       </c>
       <c r="K18">
-        <v>0.4263446442687417</v>
+        <v>0.3476786210270504</v>
       </c>
       <c r="L18">
-        <v>0.1786918365563395</v>
+        <v>0.1537386275371269</v>
       </c>
       <c r="M18">
-        <v>1.585992670600689</v>
+        <v>0.1116530475854809</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1806043478033246</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.626858031089739</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341337953795744</v>
+        <v>1.315414289891351</v>
       </c>
       <c r="C19">
-        <v>0.3029590688858832</v>
+        <v>0.3522019455549525</v>
       </c>
       <c r="D19">
-        <v>0.2858457956275799</v>
+        <v>0.3182031237857075</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.204402894782447</v>
+        <v>1.058667210646078</v>
       </c>
       <c r="G19">
-        <v>0.7632739164519506</v>
+        <v>0.6220892634660942</v>
       </c>
       <c r="H19">
-        <v>0.0264342401772808</v>
+        <v>0.02634611415111721</v>
       </c>
       <c r="I19">
-        <v>0.002701435568669197</v>
+        <v>0.002435987395828398</v>
       </c>
       <c r="J19">
-        <v>0.545507876124887</v>
+        <v>0.492117512864624</v>
       </c>
       <c r="K19">
-        <v>0.4839821777322513</v>
+        <v>0.3883806650832398</v>
       </c>
       <c r="L19">
-        <v>0.3191197322293675</v>
+        <v>0.1689452149893427</v>
       </c>
       <c r="M19">
-        <v>1.587587870286939</v>
+        <v>0.1269794471864252</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3211871194428824</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.633750148557226</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.382470820024821</v>
+        <v>1.348901716103796</v>
       </c>
       <c r="C20">
-        <v>0.3402172297667789</v>
+        <v>0.4045271361586629</v>
       </c>
       <c r="D20">
-        <v>0.4116959567604965</v>
+        <v>0.459927261835162</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.540850422264768</v>
+        <v>1.33183513707462</v>
       </c>
       <c r="G20">
-        <v>0.9663450729567415</v>
+        <v>0.7831073103772468</v>
       </c>
       <c r="H20">
-        <v>0.0001543544331514823</v>
+        <v>0.0001835510841021737</v>
       </c>
       <c r="I20">
-        <v>0.002155249119903502</v>
+        <v>0.002168849272419671</v>
       </c>
       <c r="J20">
-        <v>0.645797227871526</v>
+        <v>0.5521201345912061</v>
       </c>
       <c r="K20">
-        <v>0.5871337368072602</v>
+        <v>0.4541093410896906</v>
       </c>
       <c r="L20">
-        <v>0.6320393245542704</v>
+        <v>0.1912439154352015</v>
       </c>
       <c r="M20">
-        <v>1.672932109679152</v>
+        <v>0.1547254631199273</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6338483248747622</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.728325724955653</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.556383562394473</v>
+        <v>1.519991853277787</v>
       </c>
       <c r="C21">
-        <v>0.3859912908486081</v>
+        <v>0.4513126634529101</v>
       </c>
       <c r="D21">
-        <v>0.4725755987995228</v>
+        <v>0.5433419574391678</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.684060343656498</v>
+        <v>1.386800767116085</v>
       </c>
       <c r="G21">
-        <v>1.047702914460743</v>
+        <v>0.8989148824099829</v>
       </c>
       <c r="H21">
-        <v>0.0007569693443869596</v>
+        <v>0.0007734239489387562</v>
       </c>
       <c r="I21">
-        <v>0.00168620139760467</v>
+        <v>0.002019045968852495</v>
       </c>
       <c r="J21">
-        <v>0.6785508745582263</v>
+        <v>0.4526252291938988</v>
       </c>
       <c r="K21">
-        <v>0.6154513555137342</v>
+        <v>0.4422383939535308</v>
       </c>
       <c r="L21">
-        <v>0.7387589908639711</v>
+        <v>0.1808530706799019</v>
       </c>
       <c r="M21">
-        <v>1.886460674475671</v>
+        <v>0.1586298034206983</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7390369273754231</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.941084039995445</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.672053698149966</v>
+        <v>1.634300696454346</v>
       </c>
       <c r="C22">
-        <v>0.4130773078455832</v>
+        <v>0.4775745808558725</v>
       </c>
       <c r="D22">
-        <v>0.5055478459198639</v>
+        <v>0.5918147251159667</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.768778416758408</v>
+        <v>1.411248846511469</v>
       </c>
       <c r="G22">
-        <v>1.09743913902436</v>
+        <v>0.9797045562787048</v>
       </c>
       <c r="H22">
-        <v>0.001634322915425201</v>
+        <v>0.001567808289822059</v>
       </c>
       <c r="I22">
-        <v>0.00147399194658604</v>
+        <v>0.001825212289493727</v>
       </c>
       <c r="J22">
-        <v>0.6982921415767436</v>
+        <v>0.3902572781521911</v>
       </c>
       <c r="K22">
-        <v>0.6327907337372665</v>
+        <v>0.4325440496690973</v>
       </c>
       <c r="L22">
-        <v>0.7923664953648597</v>
+        <v>0.1736442942930942</v>
       </c>
       <c r="M22">
-        <v>2.024004581161535</v>
+        <v>0.1606007052851375</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7915631916883825</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.076981125441534</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611530108495344</v>
+        <v>1.57376267858254</v>
       </c>
       <c r="C23">
-        <v>0.3966251905118554</v>
+        <v>0.4628637776023083</v>
       </c>
       <c r="D23">
-        <v>0.4867275775414726</v>
+        <v>0.5630478495488376</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.728977199035782</v>
+        <v>1.408906714956927</v>
       </c>
       <c r="G23">
-        <v>1.075829632928404</v>
+        <v>0.9330830287982508</v>
       </c>
       <c r="H23">
-        <v>0.001129750745890723</v>
+        <v>0.001117969659281792</v>
       </c>
       <c r="I23">
-        <v>0.001243562729477787</v>
+        <v>0.001535758685599298</v>
       </c>
       <c r="J23">
-        <v>0.6902694086049621</v>
+        <v>0.435468388839908</v>
       </c>
       <c r="K23">
-        <v>0.6269254709943581</v>
+        <v>0.4426744429227369</v>
       </c>
       <c r="L23">
-        <v>0.7637755524800411</v>
+        <v>0.1791256042418645</v>
       </c>
       <c r="M23">
-        <v>1.949048339020209</v>
+        <v>0.161598052954556</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7636086774133304</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.004066046813421</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.380753396499671</v>
+        <v>1.346639690944471</v>
       </c>
       <c r="C24">
-        <v>0.3383454521586486</v>
+        <v>0.4034810630003847</v>
       </c>
       <c r="D24">
-        <v>0.417879363269094</v>
+        <v>0.4669098525955349</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.571339739483307</v>
+        <v>1.358029025609937</v>
       </c>
       <c r="G24">
-        <v>0.9875649190868785</v>
+        <v>0.7994690494211483</v>
       </c>
       <c r="H24">
-        <v>5.180182014674628E-05</v>
+        <v>8.547439140293989E-05</v>
       </c>
       <c r="I24">
-        <v>0.001640197082194206</v>
+        <v>0.001560772757543738</v>
       </c>
       <c r="J24">
-        <v>0.6566751963402169</v>
+        <v>0.561708461327143</v>
       </c>
       <c r="K24">
-        <v>0.5998803729594613</v>
+        <v>0.4635461159912637</v>
       </c>
       <c r="L24">
-        <v>0.6560295507948268</v>
+        <v>0.194757832439592</v>
       </c>
       <c r="M24">
-        <v>1.668910856766615</v>
+        <v>0.1582827546912569</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6578417161505286</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.724983021427477</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132491687504626</v>
+        <v>1.108479962044044</v>
       </c>
       <c r="C25">
-        <v>0.2769270624926605</v>
+        <v>0.3267001331682025</v>
       </c>
       <c r="D25">
-        <v>0.3444062036201672</v>
+        <v>0.3820507561159729</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.405270765308885</v>
+        <v>1.23656199481205</v>
       </c>
       <c r="G25">
-        <v>0.8957386998065431</v>
+        <v>0.737239735163584</v>
       </c>
       <c r="H25">
-        <v>0.0005047661507706636</v>
+        <v>0.0003527112858321413</v>
       </c>
       <c r="I25">
-        <v>0.003604181167303544</v>
+        <v>0.002757659343959773</v>
       </c>
       <c r="J25">
-        <v>0.6223253748797077</v>
+        <v>0.5514103538493913</v>
       </c>
       <c r="K25">
-        <v>0.5722121786157004</v>
+        <v>0.458266285721777</v>
       </c>
       <c r="L25">
-        <v>0.5408219806486869</v>
+        <v>0.202121764111034</v>
       </c>
       <c r="M25">
-        <v>1.368898695933893</v>
+        <v>0.1452995858095214</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5438153229980713</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.414255856710582</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
